--- a/10-st/DP2/check.xlsx
+++ b/10-st/DP2/check.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\matlab\10-st\DP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA8083B-AE09-41AE-9E99-0526450BE190}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88615EB2-3E1A-4058-AE5E-8F2B1B4BC7F4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15015" windowHeight="7965" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15015" windowHeight="7965" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Sheet1" sheetId="12" r:id="rId10"/>
     <sheet name="工作表1" sheetId="13" r:id="rId11"/>
     <sheet name="工作表2" sheetId="14" r:id="rId12"/>
+    <sheet name="工作表3" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="縣市">#REF!</definedName>
@@ -11698,10 +11699,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>A572 Gr50</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">link </t>
     </r>
@@ -11842,6 +11839,10 @@
   </si>
   <si>
     <t>DCR</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN490</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -13965,6 +13966,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -13975,18 +13988,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14031,6 +14032,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14058,30 +14071,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14095,6 +14084,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15047,6 +15048,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675676</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>65855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FEE40D-5DCA-4207-A8A5-DD8353E3CE46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4790476" cy="6561905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -28050,6 +28100,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7993F6-A257-4FE4-90A7-6B92A0E5FCD0}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I85"/>
@@ -36628,6 +36694,16 @@
     <row r="361" spans="1:7" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A289:A321"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A329:A344"/>
+    <mergeCell ref="A346:A358"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A209:A239"/>
+    <mergeCell ref="A241:A247"/>
+    <mergeCell ref="A249:A275"/>
+    <mergeCell ref="A277:A287"/>
     <mergeCell ref="A166:A185"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="A22:A28"/>
@@ -36640,16 +36716,6 @@
     <mergeCell ref="A116:A123"/>
     <mergeCell ref="A125:A150"/>
     <mergeCell ref="A152:A164"/>
-    <mergeCell ref="A289:A321"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A329:A344"/>
-    <mergeCell ref="A346:A358"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A209:A239"/>
-    <mergeCell ref="A241:A247"/>
-    <mergeCell ref="A249:A275"/>
-    <mergeCell ref="A277:A287"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37223,7 +37289,7 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="280" t="s">
+      <c r="A3" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -37244,7 +37310,7 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="281"/>
+      <c r="A4" s="279"/>
       <c r="B4" s="31">
         <v>1.23</v>
       </c>
@@ -37266,7 +37332,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="282" t="s">
+      <c r="A5" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -37287,7 +37353,7 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="283"/>
+      <c r="A6" s="277"/>
       <c r="B6" s="33">
         <v>1.36</v>
       </c>
@@ -37315,7 +37381,7 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="280" t="s">
+      <c r="A8" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -37336,7 +37402,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="281"/>
+      <c r="A9" s="279"/>
       <c r="B9" s="31">
         <v>1.25</v>
       </c>
@@ -37358,7 +37424,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="282" t="s">
+      <c r="A10" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -37379,7 +37445,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="283"/>
+      <c r="A11" s="277"/>
       <c r="B11" s="33">
         <v>1.5</v>
       </c>
@@ -37416,7 +37482,7 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="280" t="s">
+      <c r="A15" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -37434,7 +37500,7 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="281"/>
+      <c r="A16" s="279"/>
       <c r="B16" s="31">
         <v>1.28</v>
       </c>
@@ -37453,7 +37519,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="282" t="s">
+      <c r="A17" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -37471,7 +37537,7 @@
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="283"/>
+      <c r="A18" s="277"/>
       <c r="B18" s="33">
         <v>1.33</v>
       </c>
@@ -37496,7 +37562,7 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="280" t="s">
+      <c r="A20" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -37514,7 +37580,7 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="281"/>
+      <c r="A21" s="279"/>
       <c r="B21" s="31">
         <v>1.26</v>
       </c>
@@ -37533,7 +37599,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="282" t="s">
+      <c r="A22" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -37551,7 +37617,7 @@
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="283"/>
+      <c r="A23" s="277"/>
       <c r="B23" s="33">
         <v>1.42</v>
       </c>
@@ -37585,7 +37651,7 @@
       <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -37603,7 +37669,7 @@
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="281"/>
+      <c r="A28" s="279"/>
       <c r="B28" s="31">
         <v>1.28</v>
       </c>
@@ -37622,7 +37688,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="282" t="s">
+      <c r="A29" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -37640,7 +37706,7 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="283"/>
+      <c r="A30" s="277"/>
       <c r="B30" s="33">
         <v>1.31</v>
       </c>
@@ -37665,7 +37731,7 @@
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="280" t="s">
+      <c r="A32" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -37683,7 +37749,7 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="281"/>
+      <c r="A33" s="279"/>
       <c r="B33" s="31">
         <v>1.26</v>
       </c>
@@ -37702,7 +37768,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="282" t="s">
+      <c r="A34" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B34" s="32" t="s">
@@ -37720,7 +37786,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="283"/>
+      <c r="A35" s="277"/>
       <c r="B35" s="33">
         <v>1.42</v>
       </c>
@@ -37758,7 +37824,7 @@
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="280" t="s">
+      <c r="A40" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B40" s="29" t="s">
@@ -37776,7 +37842,7 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="281"/>
+      <c r="A41" s="279"/>
       <c r="B41" s="31">
         <v>1.37</v>
       </c>
@@ -37795,7 +37861,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="282" t="s">
+      <c r="A42" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -37813,7 +37879,7 @@
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="283"/>
+      <c r="A43" s="277"/>
       <c r="B43" s="33">
         <v>1.44</v>
       </c>
@@ -37838,7 +37904,7 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="280" t="s">
+      <c r="A45" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B45" s="29" t="s">
@@ -37856,7 +37922,7 @@
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="281"/>
+      <c r="A46" s="279"/>
       <c r="B46" s="31">
         <v>1.3</v>
       </c>
@@ -37875,7 +37941,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B47" s="32" t="s">
@@ -37893,7 +37959,7 @@
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="283"/>
+      <c r="A48" s="277"/>
       <c r="B48" s="33">
         <v>1.48</v>
       </c>
@@ -37927,7 +37993,7 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="280" t="s">
+      <c r="A52" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B52" s="29" t="s">
@@ -37942,7 +38008,7 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="281"/>
+      <c r="A53" s="279"/>
       <c r="B53" s="31">
         <v>1.23</v>
       </c>
@@ -37958,7 +38024,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="282" t="s">
+      <c r="A54" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B54" s="32" t="s">
@@ -37973,7 +38039,7 @@
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="283"/>
+      <c r="A55" s="277"/>
       <c r="B55" s="33">
         <v>1.1499999999999999</v>
       </c>
@@ -37995,7 +38061,7 @@
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="280" t="s">
+      <c r="A57" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B57" s="29" t="s">
@@ -38010,7 +38076,7 @@
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="281"/>
+      <c r="A58" s="279"/>
       <c r="B58" s="31">
         <v>1.29</v>
       </c>
@@ -38026,7 +38092,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="282" t="s">
+      <c r="A59" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -38041,7 +38107,7 @@
       <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="283"/>
+      <c r="A60" s="277"/>
       <c r="B60" s="33">
         <v>1.3</v>
       </c>
@@ -38072,7 +38138,7 @@
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="280" t="s">
+      <c r="A64" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -38090,7 +38156,7 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="281"/>
+      <c r="A65" s="279"/>
       <c r="B65" s="31">
         <v>1.1499999999999999</v>
       </c>
@@ -38109,7 +38175,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="282" t="s">
+      <c r="A66" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B66" s="32" t="s">
@@ -38127,7 +38193,7 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="283"/>
+      <c r="A67" s="277"/>
       <c r="B67" s="33">
         <v>1.1499999999999999</v>
       </c>
@@ -38152,7 +38218,7 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="280" t="s">
+      <c r="A69" s="278" t="s">
         <v>438</v>
       </c>
       <c r="B69" s="29" t="s">
@@ -38170,7 +38236,7 @@
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="281"/>
+      <c r="A70" s="279"/>
       <c r="B70" s="31">
         <v>1.21</v>
       </c>
@@ -38189,7 +38255,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="282" t="s">
+      <c r="A71" s="276" t="s">
         <v>439</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -38207,7 +38273,7 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="283"/>
+      <c r="A72" s="277"/>
       <c r="B72" s="33">
         <v>1.42</v>
       </c>
@@ -38245,7 +38311,7 @@
       <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="276" t="s">
+      <c r="A77" s="280" t="s">
         <v>419</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -38266,7 +38332,7 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="277"/>
+      <c r="A78" s="281"/>
       <c r="B78" s="31">
         <v>1.42</v>
       </c>
@@ -38288,7 +38354,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="278" t="s">
+      <c r="A79" s="282" t="s">
         <v>425</v>
       </c>
       <c r="B79" s="32" t="s">
@@ -38309,7 +38375,7 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="279"/>
+      <c r="A80" s="283"/>
       <c r="B80" s="33">
         <v>1.58</v>
       </c>
@@ -38337,7 +38403,7 @@
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="276" t="s">
+      <c r="A82" s="280" t="s">
         <v>419</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -38361,7 +38427,7 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="277"/>
+      <c r="A83" s="281"/>
       <c r="B83" s="31">
         <v>1.32</v>
       </c>
@@ -38386,7 +38452,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="278" t="s">
+      <c r="A84" s="282" t="s">
         <v>425</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -38410,7 +38476,7 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="279"/>
+      <c r="A85" s="283"/>
       <c r="B85" s="33">
         <v>1.58</v>
       </c>
@@ -38437,12 +38503,16 @@
     <row r="86" spans="1:8" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -38455,16 +38525,12 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A16"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40688,7 +40754,7 @@
   <dimension ref="A1:AD102"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -40748,7 +40814,7 @@
         <v>999</v>
       </c>
       <c r="K1" s="217" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40907,10 +40973,10 @@
       <c r="S5" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="T5" s="307" t="s">
+      <c r="T5" s="298" t="s">
         <v>1009</v>
       </c>
-      <c r="U5" s="307"/>
+      <c r="U5" s="298"/>
     </row>
     <row r="6" spans="1:30" s="173" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
@@ -40954,10 +41020,10 @@
       <c r="S6" s="173" t="s">
         <v>1010</v>
       </c>
-      <c r="T6" s="307" t="s">
+      <c r="T6" s="298" t="s">
         <v>1011</v>
       </c>
-      <c r="U6" s="307"/>
+      <c r="U6" s="298"/>
     </row>
     <row r="7" spans="1:30" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="str">
@@ -41000,7 +41066,7 @@
       <c r="E9" s="223"/>
       <c r="G9" s="176"/>
       <c r="R9" s="233" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="10" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -41009,10 +41075,10 @@
         <f>B29/B30*1.3</f>
         <v>166.59207288765089</v>
       </c>
-      <c r="U10" s="308" t="s">
-        <v>1039</v>
-      </c>
-      <c r="V10" s="308"/>
+      <c r="U10" s="299" t="s">
+        <v>1038</v>
+      </c>
+      <c r="V10" s="299"/>
     </row>
     <row r="11" spans="1:30" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N11" s="41" t="s">
@@ -41029,27 +41095,27 @@
         <v>136.96428571428572</v>
       </c>
       <c r="S11" s="6" t="s">
-        <v>1038</v>
-      </c>
-      <c r="U11" s="308"/>
-      <c r="V11" s="308"/>
+        <v>1037</v>
+      </c>
+      <c r="U11" s="299"/>
+      <c r="V11" s="299"/>
     </row>
     <row r="12" spans="1:30" s="55" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="301" t="s">
+      <c r="A12" s="305" t="s">
         <v>1002</v>
       </c>
-      <c r="B12" s="302"/>
-      <c r="C12" s="303"/>
-      <c r="D12" s="301" t="s">
+      <c r="B12" s="306"/>
+      <c r="C12" s="307"/>
+      <c r="D12" s="305" t="s">
         <v>1003</v>
       </c>
-      <c r="E12" s="302"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="301" t="s">
+      <c r="E12" s="306"/>
+      <c r="F12" s="307"/>
+      <c r="G12" s="305" t="s">
         <v>1004</v>
       </c>
-      <c r="H12" s="302"/>
-      <c r="I12" s="303"/>
+      <c r="H12" s="306"/>
+      <c r="I12" s="307"/>
       <c r="N12" s="114" t="str">
         <f>A1</f>
         <v>Story</v>
@@ -41073,20 +41139,20 @@
       <c r="T12" s="231" t="s">
         <v>725</v>
       </c>
-      <c r="U12" s="309" t="s">
-        <v>1040</v>
-      </c>
-      <c r="V12" s="310"/>
-      <c r="W12" s="304" t="s">
+      <c r="U12" s="300" t="s">
+        <v>1039</v>
+      </c>
+      <c r="V12" s="301"/>
+      <c r="W12" s="308" t="s">
         <v>726</v>
       </c>
-      <c r="X12" s="305"/>
-      <c r="Y12" s="305"/>
-      <c r="Z12" s="305"/>
-      <c r="AA12" s="305"/>
-      <c r="AB12" s="305"/>
-      <c r="AC12" s="305"/>
-      <c r="AD12" s="306"/>
+      <c r="X12" s="309"/>
+      <c r="Y12" s="309"/>
+      <c r="Z12" s="309"/>
+      <c r="AA12" s="309"/>
+      <c r="AB12" s="309"/>
+      <c r="AC12" s="309"/>
+      <c r="AD12" s="310"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="156" t="s">
@@ -42491,7 +42557,7 @@
     <row r="37" spans="1:27" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C37" s="173"/>
       <c r="N37" s="238" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="O37" s="238">
         <v>350</v>
@@ -42511,35 +42577,35 @@
     </row>
     <row r="38" spans="1:27" s="173" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N38" s="227"/>
-      <c r="O38" s="307" t="s">
+      <c r="O38" s="298" t="s">
         <v>976</v>
       </c>
-      <c r="P38" s="307" t="s">
+      <c r="P38" s="298" t="s">
         <v>973</v>
       </c>
-      <c r="Q38" s="307"/>
+      <c r="Q38" s="298"/>
     </row>
     <row r="39" spans="1:27" s="173" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N39" s="227"/>
-      <c r="O39" s="307"/>
-      <c r="P39" s="307"/>
-      <c r="Q39" s="307"/>
+      <c r="O39" s="298"/>
+      <c r="P39" s="298"/>
+      <c r="Q39" s="298"/>
     </row>
     <row r="40" spans="1:27" s="173" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N40" s="227"/>
-      <c r="O40" s="307" t="s">
+      <c r="O40" s="298" t="s">
         <v>977</v>
       </c>
-      <c r="P40" s="307" t="s">
+      <c r="P40" s="298" t="s">
         <v>974</v>
       </c>
-      <c r="Q40" s="307"/>
+      <c r="Q40" s="298"/>
     </row>
     <row r="41" spans="1:27" s="173" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N41" s="227"/>
-      <c r="O41" s="307"/>
-      <c r="P41" s="307"/>
-      <c r="Q41" s="307"/>
+      <c r="O41" s="298"/>
+      <c r="P41" s="298"/>
+      <c r="Q41" s="298"/>
     </row>
     <row r="42" spans="1:27" s="173" customFormat="1" x14ac:dyDescent="0.25">
       <c r="N42" s="227"/>
@@ -42571,21 +42637,21 @@
       <c r="AA46" s="173"/>
     </row>
     <row r="47" spans="1:27" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="301" t="s">
+      <c r="A47" s="305" t="s">
         <v>835</v>
       </c>
-      <c r="B47" s="302"/>
-      <c r="C47" s="303"/>
-      <c r="D47" s="301" t="s">
+      <c r="B47" s="306"/>
+      <c r="C47" s="307"/>
+      <c r="D47" s="305" t="s">
         <v>828</v>
       </c>
-      <c r="E47" s="302"/>
-      <c r="F47" s="303"/>
-      <c r="G47" s="301" t="s">
+      <c r="E47" s="306"/>
+      <c r="F47" s="307"/>
+      <c r="G47" s="305" t="s">
         <v>829</v>
       </c>
-      <c r="H47" s="302"/>
-      <c r="I47" s="303"/>
+      <c r="H47" s="306"/>
+      <c r="I47" s="307"/>
       <c r="N47" s="41" t="s">
         <v>729</v>
       </c>
@@ -42646,16 +42712,16 @@
       <c r="S48" s="152" t="s">
         <v>740</v>
       </c>
-      <c r="T48" s="304" t="s">
+      <c r="T48" s="308" t="s">
         <v>726</v>
       </c>
-      <c r="U48" s="305"/>
-      <c r="V48" s="305"/>
-      <c r="W48" s="305"/>
-      <c r="X48" s="305"/>
-      <c r="Y48" s="305"/>
-      <c r="Z48" s="305"/>
-      <c r="AA48" s="306"/>
+      <c r="U48" s="309"/>
+      <c r="V48" s="309"/>
+      <c r="W48" s="309"/>
+      <c r="X48" s="309"/>
+      <c r="Y48" s="309"/>
+      <c r="Z48" s="309"/>
+      <c r="AA48" s="310"/>
     </row>
     <row r="49" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="156" t="s">
@@ -43601,7 +43667,7 @@
         <v>721</v>
       </c>
       <c r="N64" s="238" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O64" s="238">
         <f>400/SIN(G2)</f>
@@ -43681,13 +43747,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I66" s="99"/>
-      <c r="O66" s="307" t="s">
+      <c r="O66" s="298" t="s">
         <v>976</v>
       </c>
-      <c r="P66" s="307" t="s">
+      <c r="P66" s="298" t="s">
         <v>973</v>
       </c>
-      <c r="Q66" s="307"/>
+      <c r="Q66" s="298"/>
       <c r="U66" s="62"/>
       <c r="V66" s="62"/>
       <c r="W66" s="62"/>
@@ -43720,9 +43786,9 @@
         <v>13.325044772225652</v>
       </c>
       <c r="I67" s="93"/>
-      <c r="O67" s="307"/>
-      <c r="P67" s="307"/>
-      <c r="Q67" s="307"/>
+      <c r="O67" s="298"/>
+      <c r="P67" s="298"/>
+      <c r="Q67" s="298"/>
       <c r="U67" s="62"/>
       <c r="V67" s="62"/>
       <c r="W67" s="62"/>
@@ -43755,13 +43821,13 @@
         <v>8.5280286542244177</v>
       </c>
       <c r="I68" s="93"/>
-      <c r="O68" s="307" t="s">
+      <c r="O68" s="298" t="s">
         <v>977</v>
       </c>
-      <c r="P68" s="307" t="s">
+      <c r="P68" s="298" t="s">
         <v>974</v>
       </c>
-      <c r="Q68" s="307"/>
+      <c r="Q68" s="298"/>
       <c r="U68" s="62"/>
       <c r="V68" s="62"/>
       <c r="W68" s="62"/>
@@ -43794,9 +43860,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I69" s="93"/>
-      <c r="O69" s="307"/>
-      <c r="P69" s="307"/>
-      <c r="Q69" s="307"/>
+      <c r="O69" s="298"/>
+      <c r="P69" s="298"/>
+      <c r="Q69" s="298"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="163" t="s">
@@ -43889,21 +43955,21 @@
       <c r="AA76" s="173"/>
     </row>
     <row r="77" spans="1:29" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="301" t="s">
+      <c r="A77" s="305" t="s">
         <v>834</v>
       </c>
-      <c r="B77" s="302"/>
-      <c r="C77" s="303"/>
-      <c r="D77" s="301" t="s">
+      <c r="B77" s="306"/>
+      <c r="C77" s="307"/>
+      <c r="D77" s="305" t="s">
         <v>827</v>
       </c>
-      <c r="E77" s="302"/>
-      <c r="F77" s="303"/>
-      <c r="G77" s="301" t="s">
+      <c r="E77" s="306"/>
+      <c r="F77" s="307"/>
+      <c r="G77" s="305" t="s">
         <v>826</v>
       </c>
-      <c r="H77" s="302"/>
-      <c r="I77" s="303"/>
+      <c r="H77" s="306"/>
+      <c r="I77" s="307"/>
       <c r="N77" s="172" t="s">
         <v>754</v>
       </c>
@@ -43970,16 +44036,16 @@
       <c r="R78" s="174" t="s">
         <v>1030</v>
       </c>
-      <c r="S78" s="298" t="s">
+      <c r="S78" s="302" t="s">
         <v>726</v>
       </c>
-      <c r="T78" s="299"/>
-      <c r="U78" s="299"/>
-      <c r="V78" s="299"/>
-      <c r="W78" s="299"/>
-      <c r="X78" s="299"/>
-      <c r="Y78" s="299"/>
-      <c r="Z78" s="300"/>
+      <c r="T78" s="303"/>
+      <c r="U78" s="303"/>
+      <c r="V78" s="303"/>
+      <c r="W78" s="303"/>
+      <c r="X78" s="303"/>
+      <c r="Y78" s="303"/>
+      <c r="Z78" s="304"/>
       <c r="AA78" s="173"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -45034,7 +45100,7 @@
         <v>722</v>
       </c>
       <c r="N95" s="238" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="O95" s="238">
         <v>400</v>
@@ -45091,13 +45157,13 @@
         <v>13.325044772225652</v>
       </c>
       <c r="I97" s="93"/>
-      <c r="O97" s="307" t="s">
+      <c r="O97" s="298" t="s">
         <v>976</v>
       </c>
-      <c r="P97" s="307" t="s">
+      <c r="P97" s="298" t="s">
         <v>973</v>
       </c>
-      <c r="Q97" s="307"/>
+      <c r="Q97" s="298"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="200" t="s">
@@ -45124,9 +45190,9 @@
         <v>8.5280286542244177</v>
       </c>
       <c r="I98" s="93"/>
-      <c r="O98" s="307"/>
-      <c r="P98" s="307"/>
-      <c r="Q98" s="307"/>
+      <c r="O98" s="298"/>
+      <c r="P98" s="298"/>
+      <c r="Q98" s="298"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="200" t="s">
@@ -45153,13 +45219,13 @@
         <v>40.4</v>
       </c>
       <c r="I99" s="93"/>
-      <c r="O99" s="307" t="s">
+      <c r="O99" s="298" t="s">
         <v>977</v>
       </c>
-      <c r="P99" s="307" t="s">
+      <c r="P99" s="298" t="s">
         <v>974</v>
       </c>
-      <c r="Q99" s="307"/>
+      <c r="Q99" s="298"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="163" t="s">
@@ -45186,9 +45252,9 @@
         <v>138.58046563114678</v>
       </c>
       <c r="I100" s="93"/>
-      <c r="O100" s="307"/>
-      <c r="P100" s="307"/>
-      <c r="Q100" s="307"/>
+      <c r="O100" s="298"/>
+      <c r="P100" s="298"/>
+      <c r="Q100" s="298"/>
     </row>
     <row r="101" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="202" t="s">
@@ -45230,20 +45296,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P97:Q98"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="P99:Q100"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:Q67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:Q69"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V12"/>
     <mergeCell ref="S78:Z78"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="D77:F77"/>
@@ -45258,6 +45310,20 @@
     <mergeCell ref="G77:I77"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="P40:Q41"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P97:Q98"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:Q67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:Q69"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45272,8 +45338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45322,13 +45388,13 @@
         <v>axial force of brace (Tf)</v>
       </c>
       <c r="G1" s="234" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H1" s="242" t="s">
         <v>935</v>
       </c>
       <c r="J1" s="176" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="K1" s="176"/>
       <c r="L1" s="176"/>
@@ -45559,9 +45625,9 @@
       <c r="D9" s="175"/>
       <c r="E9" s="175"/>
       <c r="P9" s="175"/>
-      <c r="Q9" s="311"/>
-      <c r="R9" s="311"/>
-      <c r="S9" s="311"/>
+      <c r="Q9" s="316"/>
+      <c r="R9" s="316"/>
+      <c r="S9" s="316"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
       <c r="V9" s="62"/>
@@ -45576,7 +45642,7 @@
         <v>943</v>
       </c>
       <c r="H10" s="173" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="M10" s="114" t="s">
         <v>678</v>
@@ -45603,11 +45669,11 @@
         <f t="shared" ref="B11:B17" si="3">E1</f>
         <v>axial force of brace (Tf)</v>
       </c>
-      <c r="C11" s="318" t="s">
+      <c r="C11" s="314" t="s">
         <v>761</v>
       </c>
-      <c r="D11" s="318"/>
-      <c r="E11" s="318"/>
+      <c r="D11" s="314"/>
+      <c r="E11" s="314"/>
       <c r="F11" s="174" t="s">
         <v>763</v>
       </c>
@@ -45615,7 +45681,7 @@
         <v>762</v>
       </c>
       <c r="H11" s="217" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="I11" s="217" t="s">
         <v>1021</v>
@@ -46002,7 +46068,7 @@
     </row>
     <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="J20" s="244" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="M20" s="114">
         <v>50</v>
@@ -46392,7 +46458,7 @@
       <c r="A29" s="62"/>
       <c r="B29" s="62"/>
       <c r="C29" s="246" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D29" s="245">
         <v>400</v>
@@ -46462,10 +46528,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="319" t="s">
+      <c r="A33" s="315" t="s">
         <v>967</v>
       </c>
-      <c r="B33" s="319"/>
+      <c r="B33" s="315"/>
       <c r="D33" s="213" t="s">
         <v>970</v>
       </c>
@@ -46496,7 +46562,7 @@
       <c r="B34" s="168" t="s">
         <v>955</v>
       </c>
-      <c r="C34" s="312" t="s">
+      <c r="C34" s="317" t="s">
         <v>962</v>
       </c>
       <c r="D34" s="211" t="s">
@@ -46529,7 +46595,7 @@
       <c r="B35" s="174" t="s">
         <v>953</v>
       </c>
-      <c r="C35" s="313"/>
+      <c r="C35" s="318"/>
       <c r="E35" s="211"/>
       <c r="F35" s="211"/>
       <c r="G35" s="211"/>
@@ -46541,7 +46607,7 @@
       <c r="B36" s="174" t="s">
         <v>954</v>
       </c>
-      <c r="C36" s="313"/>
+      <c r="C36" s="318"/>
     </row>
     <row r="37" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="200" t="s">
@@ -46550,7 +46616,7 @@
       <c r="B37" s="174" t="s">
         <v>956</v>
       </c>
-      <c r="C37" s="312" t="s">
+      <c r="C37" s="317" t="s">
         <v>965</v>
       </c>
       <c r="D37" s="212"/>
@@ -46562,7 +46628,7 @@
       <c r="B38" s="174" t="s">
         <v>957</v>
       </c>
-      <c r="C38" s="313"/>
+      <c r="C38" s="318"/>
       <c r="D38" s="212"/>
     </row>
     <row r="39" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -46572,7 +46638,7 @@
       <c r="B39" s="94" t="s">
         <v>958</v>
       </c>
-      <c r="C39" s="313"/>
+      <c r="C39" s="318"/>
     </row>
     <row r="40" spans="1:22" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="176" t="s">
@@ -46598,21 +46664,21 @@
     </row>
     <row r="43" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="301" t="s">
+      <c r="A44" s="305" t="s">
         <v>840</v>
       </c>
-      <c r="B44" s="302"/>
-      <c r="C44" s="303"/>
-      <c r="D44" s="301" t="s">
+      <c r="B44" s="306"/>
+      <c r="C44" s="307"/>
+      <c r="D44" s="305" t="s">
         <v>841</v>
       </c>
-      <c r="E44" s="302"/>
-      <c r="F44" s="303"/>
-      <c r="G44" s="301" t="s">
+      <c r="E44" s="306"/>
+      <c r="F44" s="307"/>
+      <c r="G44" s="305" t="s">
         <v>842</v>
       </c>
-      <c r="H44" s="302"/>
-      <c r="I44" s="303"/>
+      <c r="H44" s="306"/>
+      <c r="I44" s="307"/>
       <c r="K44" s="172" t="s">
         <v>773</v>
       </c>
@@ -46666,15 +46732,15 @@
       <c r="O45" s="149" t="s">
         <v>775</v>
       </c>
-      <c r="P45" s="315" t="s">
+      <c r="P45" s="311" t="s">
         <v>758</v>
       </c>
-      <c r="Q45" s="316"/>
-      <c r="R45" s="316"/>
-      <c r="S45" s="316"/>
-      <c r="T45" s="316"/>
-      <c r="U45" s="316"/>
-      <c r="V45" s="317"/>
+      <c r="Q45" s="312"/>
+      <c r="R45" s="312"/>
+      <c r="S45" s="312"/>
+      <c r="T45" s="312"/>
+      <c r="U45" s="312"/>
+      <c r="V45" s="313"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="156" t="s">
@@ -47106,7 +47172,7 @@
       <c r="I52" s="93"/>
       <c r="J52" s="62"/>
       <c r="N52" s="247" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="O52" s="247">
         <v>800</v>
@@ -47638,7 +47704,7 @@
       </c>
       <c r="J62" s="62"/>
       <c r="K62" s="250" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="L62" s="250">
         <v>400</v>
@@ -47674,14 +47740,14 @@
       </c>
       <c r="I63" s="99"/>
       <c r="J63" s="62"/>
-      <c r="K63" s="307" t="s">
+      <c r="K63" s="298" t="s">
         <v>976</v>
       </c>
-      <c r="L63" s="307"/>
-      <c r="M63" s="307" t="s">
+      <c r="L63" s="298"/>
+      <c r="M63" s="298" t="s">
         <v>973</v>
       </c>
-      <c r="N63" s="307"/>
+      <c r="N63" s="298"/>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A64" s="163" t="s">
@@ -47709,10 +47775,10 @@
       </c>
       <c r="I64" s="93"/>
       <c r="J64" s="62"/>
-      <c r="K64" s="307"/>
-      <c r="L64" s="307"/>
-      <c r="M64" s="307"/>
-      <c r="N64" s="307"/>
+      <c r="K64" s="298"/>
+      <c r="L64" s="298"/>
+      <c r="M64" s="298"/>
+      <c r="N64" s="298"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="200" t="s">
@@ -47740,14 +47806,14 @@
       </c>
       <c r="I65" s="93"/>
       <c r="J65" s="62"/>
-      <c r="K65" s="307" t="s">
+      <c r="K65" s="298" t="s">
         <v>977</v>
       </c>
-      <c r="L65" s="307"/>
-      <c r="M65" s="307" t="s">
+      <c r="L65" s="298"/>
+      <c r="M65" s="298" t="s">
         <v>974</v>
       </c>
-      <c r="N65" s="307"/>
+      <c r="N65" s="298"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="200" t="s">
@@ -47775,8 +47841,8 @@
       </c>
       <c r="I66" s="93"/>
       <c r="J66" s="62"/>
-      <c r="K66" s="307"/>
-      <c r="L66" s="307"/>
+      <c r="K66" s="298"/>
+      <c r="L66" s="298"/>
       <c r="M66" s="211"/>
       <c r="N66" s="211"/>
     </row>
@@ -47806,10 +47872,10 @@
       </c>
       <c r="I67" s="93"/>
       <c r="J67" s="62"/>
-      <c r="K67" s="307" t="s">
+      <c r="K67" s="298" t="s">
         <v>978</v>
       </c>
-      <c r="L67" s="307"/>
+      <c r="L67" s="298"/>
     </row>
     <row r="68" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="202" t="s">
@@ -47837,10 +47903,10 @@
       </c>
       <c r="I68" s="95"/>
       <c r="J68" s="62"/>
-      <c r="K68" s="314" t="s">
+      <c r="K68" s="319" t="s">
         <v>1020</v>
       </c>
-      <c r="L68" s="314"/>
+      <c r="L68" s="319"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="176" t="s">
@@ -47893,21 +47959,21 @@
       <c r="J73" s="62"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="301" t="s">
+      <c r="A74" s="305" t="s">
         <v>834</v>
       </c>
-      <c r="B74" s="302"/>
-      <c r="C74" s="303"/>
-      <c r="D74" s="301" t="s">
+      <c r="B74" s="306"/>
+      <c r="C74" s="307"/>
+      <c r="D74" s="305" t="s">
         <v>930</v>
       </c>
-      <c r="E74" s="302"/>
-      <c r="F74" s="303"/>
-      <c r="G74" s="301" t="s">
+      <c r="E74" s="306"/>
+      <c r="F74" s="307"/>
+      <c r="G74" s="305" t="s">
         <v>839</v>
       </c>
-      <c r="H74" s="302"/>
-      <c r="I74" s="303"/>
+      <c r="H74" s="306"/>
+      <c r="I74" s="307"/>
       <c r="J74" s="62"/>
       <c r="N74" s="215" t="s">
         <v>1005</v>
@@ -47989,15 +48055,15 @@
       <c r="N76" s="229" t="s">
         <v>779</v>
       </c>
-      <c r="O76" s="315" t="s">
+      <c r="O76" s="311" t="s">
         <v>758</v>
       </c>
-      <c r="P76" s="316"/>
-      <c r="Q76" s="316"/>
-      <c r="R76" s="316"/>
-      <c r="S76" s="316"/>
-      <c r="T76" s="316"/>
-      <c r="U76" s="317"/>
+      <c r="P76" s="312"/>
+      <c r="Q76" s="312"/>
+      <c r="R76" s="312"/>
+      <c r="S76" s="312"/>
+      <c r="T76" s="312"/>
+      <c r="U76" s="313"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="156" t="s">
@@ -48516,7 +48582,7 @@
         <v>730</v>
       </c>
       <c r="L86" s="209" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M86" s="209" t="s">
         <v>742</v>
@@ -48868,7 +48934,7 @@
       <c r="I93" s="99"/>
       <c r="J93" s="62"/>
       <c r="K93" s="251" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="L93" s="250">
         <v>400</v>
@@ -49051,11 +49117,11 @@
       <c r="J100" s="62"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E101" s="301" t="s">
+      <c r="E101" s="305" t="s">
         <v>826</v>
       </c>
-      <c r="F101" s="302"/>
-      <c r="G101" s="303"/>
+      <c r="F101" s="306"/>
+      <c r="G101" s="307"/>
       <c r="J101" s="62"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -49315,6 +49381,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M65:N65"/>
     <mergeCell ref="O76:U76"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="C11:E11"/>
@@ -49328,13 +49401,6 @@
     <mergeCell ref="K63:L64"/>
     <mergeCell ref="K65:L66"/>
     <mergeCell ref="K67:L67"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M65:N65"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/10-st/DP2/check.xlsx
+++ b/10-st/DP2/check.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\matlab\10-st\DP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\matlab\10-st\DP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF91A5A-34D3-497C-A944-63C7A0971243}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15015" windowHeight="7965" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15015" windowHeight="7965" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
@@ -30,7 +31,7 @@
   <definedNames>
     <definedName name="縣市">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -11912,7 +11913,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.0000_ "/>
@@ -14039,18 +14040,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -14061,6 +14050,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -14105,18 +14106,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -14144,6 +14133,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14159,18 +14172,6 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -14178,8 +14179,8 @@
   <cellStyles count="4">
     <cellStyle name="20% - 輔色1" xfId="3" builtinId="30"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -15141,7 +15142,7 @@
         <xdr:cNvPr id="2" name="圖片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36FEE40D-5DCA-4207-A8A5-DD8353E3CE46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15246,6 +15247,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15281,6 +15299,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15456,7 +15491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
@@ -16223,13 +16258,13 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$F$16:$F$19</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C15" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$J$15:$J$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>$J$20:$J$22</formula1>
     </dataValidation>
   </dataValidations>
@@ -16239,7 +16274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16789,7 +16824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I97"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -19335,7 +19370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:T228"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -28140,7 +28175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="I20:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28200,7 +28235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28358,7 +28393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="10" zoomScaleNormal="100" zoomScalePageLayoutView="10" workbookViewId="0">
@@ -29328,7 +29363,7 @@
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$G$31:$G$33</formula1>
     </dataValidation>
   </dataValidations>
@@ -29642,7 +29677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
@@ -29973,7 +30008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G361"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -36935,16 +36970,6 @@
     <row r="361" spans="1:7" collapsed="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A289:A321"/>
-    <mergeCell ref="A323:A327"/>
-    <mergeCell ref="A329:A344"/>
-    <mergeCell ref="A346:A358"/>
-    <mergeCell ref="A187:A204"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A209:A239"/>
-    <mergeCell ref="A241:A247"/>
-    <mergeCell ref="A249:A275"/>
-    <mergeCell ref="A277:A287"/>
     <mergeCell ref="A166:A185"/>
     <mergeCell ref="A3:A20"/>
     <mergeCell ref="A22:A28"/>
@@ -36957,6 +36982,16 @@
     <mergeCell ref="A116:A123"/>
     <mergeCell ref="A125:A150"/>
     <mergeCell ref="A152:A164"/>
+    <mergeCell ref="A289:A321"/>
+    <mergeCell ref="A323:A327"/>
+    <mergeCell ref="A329:A344"/>
+    <mergeCell ref="A346:A358"/>
+    <mergeCell ref="A187:A204"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A209:A239"/>
+    <mergeCell ref="A241:A247"/>
+    <mergeCell ref="A249:A275"/>
+    <mergeCell ref="A277:A287"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36964,7 +36999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -37501,7 +37536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -37530,7 +37565,7 @@
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -37551,7 +37586,7 @@
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A4" s="280"/>
+      <c r="A4" s="282"/>
       <c r="B4" s="31">
         <v>1.23</v>
       </c>
@@ -37573,7 +37608,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A5" s="277" t="s">
+      <c r="A5" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B5" s="32" t="s">
@@ -37594,7 +37629,7 @@
       <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A6" s="278"/>
+      <c r="A6" s="284"/>
       <c r="B6" s="33">
         <v>1.36</v>
       </c>
@@ -37622,7 +37657,7 @@
       <c r="H7" s="34"/>
     </row>
     <row r="8" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A8" s="279" t="s">
+      <c r="A8" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -37643,7 +37678,7 @@
       <c r="H8" s="34"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A9" s="280"/>
+      <c r="A9" s="282"/>
       <c r="B9" s="31">
         <v>1.25</v>
       </c>
@@ -37665,7 +37700,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B10" s="32" t="s">
@@ -37686,7 +37721,7 @@
       <c r="H10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A11" s="278"/>
+      <c r="A11" s="284"/>
       <c r="B11" s="33">
         <v>1.5</v>
       </c>
@@ -37723,7 +37758,7 @@
       <c r="H14" s="34"/>
     </row>
     <row r="15" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A15" s="279" t="s">
+      <c r="A15" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B15" s="29" t="s">
@@ -37741,7 +37776,7 @@
       <c r="H15" s="34"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A16" s="280"/>
+      <c r="A16" s="282"/>
       <c r="B16" s="31">
         <v>1.28</v>
       </c>
@@ -37760,7 +37795,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A17" s="277" t="s">
+      <c r="A17" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B17" s="32" t="s">
@@ -37778,7 +37813,7 @@
       <c r="H17" s="34"/>
     </row>
     <row r="18" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A18" s="278"/>
+      <c r="A18" s="284"/>
       <c r="B18" s="33">
         <v>1.33</v>
       </c>
@@ -37803,7 +37838,7 @@
       <c r="H19" s="34"/>
     </row>
     <row r="20" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A20" s="279" t="s">
+      <c r="A20" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B20" s="29" t="s">
@@ -37821,7 +37856,7 @@
       <c r="H20" s="34"/>
     </row>
     <row r="21" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A21" s="280"/>
+      <c r="A21" s="282"/>
       <c r="B21" s="31">
         <v>1.26</v>
       </c>
@@ -37840,7 +37875,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -37858,7 +37893,7 @@
       <c r="H22" s="34"/>
     </row>
     <row r="23" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A23" s="278"/>
+      <c r="A23" s="284"/>
       <c r="B23" s="33">
         <v>1.42</v>
       </c>
@@ -37892,7 +37927,7 @@
       <c r="H26" s="34"/>
     </row>
     <row r="27" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A27" s="279" t="s">
+      <c r="A27" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B27" s="29" t="s">
@@ -37910,7 +37945,7 @@
       <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A28" s="280"/>
+      <c r="A28" s="282"/>
       <c r="B28" s="31">
         <v>1.28</v>
       </c>
@@ -37929,7 +37964,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A29" s="277" t="s">
+      <c r="A29" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B29" s="32" t="s">
@@ -37947,7 +37982,7 @@
       <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A30" s="278"/>
+      <c r="A30" s="284"/>
       <c r="B30" s="33">
         <v>1.31</v>
       </c>
@@ -37972,7 +38007,7 @@
       <c r="H31" s="34"/>
     </row>
     <row r="32" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A32" s="279" t="s">
+      <c r="A32" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B32" s="29" t="s">
@@ -37990,7 +38025,7 @@
       <c r="H32" s="34"/>
     </row>
     <row r="33" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A33" s="280"/>
+      <c r="A33" s="282"/>
       <c r="B33" s="31">
         <v>1.26</v>
       </c>
@@ -38009,7 +38044,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A34" s="277" t="s">
+      <c r="A34" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B34" s="32" t="s">
@@ -38027,7 +38062,7 @@
       <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A35" s="278"/>
+      <c r="A35" s="284"/>
       <c r="B35" s="33">
         <v>1.42</v>
       </c>
@@ -38065,7 +38100,7 @@
       <c r="H39" s="34"/>
     </row>
     <row r="40" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A40" s="279" t="s">
+      <c r="A40" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B40" s="29" t="s">
@@ -38083,7 +38118,7 @@
       <c r="H40" s="34"/>
     </row>
     <row r="41" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A41" s="280"/>
+      <c r="A41" s="282"/>
       <c r="B41" s="31">
         <v>1.37</v>
       </c>
@@ -38102,7 +38137,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B42" s="32" t="s">
@@ -38120,7 +38155,7 @@
       <c r="H42" s="34"/>
     </row>
     <row r="43" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A43" s="278"/>
+      <c r="A43" s="284"/>
       <c r="B43" s="33">
         <v>1.44</v>
       </c>
@@ -38145,7 +38180,7 @@
       <c r="H44" s="34"/>
     </row>
     <row r="45" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A45" s="279" t="s">
+      <c r="A45" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B45" s="29" t="s">
@@ -38163,7 +38198,7 @@
       <c r="H45" s="34"/>
     </row>
     <row r="46" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A46" s="280"/>
+      <c r="A46" s="282"/>
       <c r="B46" s="31">
         <v>1.3</v>
       </c>
@@ -38182,7 +38217,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A47" s="277" t="s">
+      <c r="A47" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B47" s="32" t="s">
@@ -38200,7 +38235,7 @@
       <c r="H47" s="34"/>
     </row>
     <row r="48" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A48" s="278"/>
+      <c r="A48" s="284"/>
       <c r="B48" s="33">
         <v>1.48</v>
       </c>
@@ -38234,7 +38269,7 @@
       <c r="H51" s="34"/>
     </row>
     <row r="52" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A52" s="279" t="s">
+      <c r="A52" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B52" s="29" t="s">
@@ -38249,7 +38284,7 @@
       <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A53" s="280"/>
+      <c r="A53" s="282"/>
       <c r="B53" s="31">
         <v>1.23</v>
       </c>
@@ -38265,7 +38300,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A54" s="277" t="s">
+      <c r="A54" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B54" s="32" t="s">
@@ -38280,7 +38315,7 @@
       <c r="H54" s="34"/>
     </row>
     <row r="55" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A55" s="278"/>
+      <c r="A55" s="284"/>
       <c r="B55" s="33">
         <v>1.1499999999999999</v>
       </c>
@@ -38302,7 +38337,7 @@
       <c r="H56" s="34"/>
     </row>
     <row r="57" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A57" s="279" t="s">
+      <c r="A57" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B57" s="29" t="s">
@@ -38317,7 +38352,7 @@
       <c r="H57" s="34"/>
     </row>
     <row r="58" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A58" s="280"/>
+      <c r="A58" s="282"/>
       <c r="B58" s="31">
         <v>1.29</v>
       </c>
@@ -38333,7 +38368,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A59" s="277" t="s">
+      <c r="A59" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B59" s="32" t="s">
@@ -38348,7 +38383,7 @@
       <c r="H59" s="34"/>
     </row>
     <row r="60" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A60" s="278"/>
+      <c r="A60" s="284"/>
       <c r="B60" s="33">
         <v>1.3</v>
       </c>
@@ -38379,7 +38414,7 @@
       <c r="H63" s="34"/>
     </row>
     <row r="64" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A64" s="279" t="s">
+      <c r="A64" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B64" s="29" t="s">
@@ -38397,7 +38432,7 @@
       <c r="H64" s="34"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A65" s="280"/>
+      <c r="A65" s="282"/>
       <c r="B65" s="31">
         <v>1.1499999999999999</v>
       </c>
@@ -38416,7 +38451,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A66" s="277" t="s">
+      <c r="A66" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B66" s="32" t="s">
@@ -38434,7 +38469,7 @@
       <c r="H66" s="34"/>
     </row>
     <row r="67" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A67" s="278"/>
+      <c r="A67" s="284"/>
       <c r="B67" s="33">
         <v>1.1499999999999999</v>
       </c>
@@ -38459,7 +38494,7 @@
       <c r="H68" s="34"/>
     </row>
     <row r="69" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A69" s="279" t="s">
+      <c r="A69" s="281" t="s">
         <v>438</v>
       </c>
       <c r="B69" s="29" t="s">
@@ -38477,7 +38512,7 @@
       <c r="H69" s="34"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A70" s="280"/>
+      <c r="A70" s="282"/>
       <c r="B70" s="31">
         <v>1.21</v>
       </c>
@@ -38496,7 +38531,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A71" s="277" t="s">
+      <c r="A71" s="283" t="s">
         <v>439</v>
       </c>
       <c r="B71" s="32" t="s">
@@ -38514,7 +38549,7 @@
       <c r="H71" s="34"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A72" s="278"/>
+      <c r="A72" s="284"/>
       <c r="B72" s="33">
         <v>1.42</v>
       </c>
@@ -38552,7 +38587,7 @@
       <c r="H76" s="34"/>
     </row>
     <row r="77" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A77" s="281" t="s">
+      <c r="A77" s="277" t="s">
         <v>419</v>
       </c>
       <c r="B77" s="29" t="s">
@@ -38573,7 +38608,7 @@
       <c r="H77" s="34"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A78" s="282"/>
+      <c r="A78" s="278"/>
       <c r="B78" s="31">
         <v>1.42</v>
       </c>
@@ -38595,7 +38630,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A79" s="283" t="s">
+      <c r="A79" s="279" t="s">
         <v>425</v>
       </c>
       <c r="B79" s="32" t="s">
@@ -38616,7 +38651,7 @@
       <c r="H79" s="34"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A80" s="284"/>
+      <c r="A80" s="280"/>
       <c r="B80" s="33">
         <v>1.58</v>
       </c>
@@ -38644,7 +38679,7 @@
       <c r="H81" s="34"/>
     </row>
     <row r="82" spans="1:8" ht="32.25" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A82" s="281" t="s">
+      <c r="A82" s="277" t="s">
         <v>419</v>
       </c>
       <c r="B82" s="29" t="s">
@@ -38668,7 +38703,7 @@
       <c r="H82" s="34"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A83" s="282"/>
+      <c r="A83" s="278"/>
       <c r="B83" s="31">
         <v>1.32</v>
       </c>
@@ -38693,7 +38728,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="33" hidden="1" outlineLevel="1" thickTop="1" thickBot="1">
-      <c r="A84" s="283" t="s">
+      <c r="A84" s="279" t="s">
         <v>425</v>
       </c>
       <c r="B84" s="32" t="s">
@@ -38717,7 +38752,7 @@
       <c r="H84" s="34"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" hidden="1" outlineLevel="1" thickBot="1">
-      <c r="A85" s="284"/>
+      <c r="A85" s="280"/>
       <c r="B85" s="33">
         <v>1.58</v>
       </c>
@@ -38744,16 +38779,12 @@
     <row r="86" spans="1:8" collapsed="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A54:A55"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A22:A23"/>
@@ -38766,12 +38797,16 @@
     <mergeCell ref="A45:A46"/>
     <mergeCell ref="A47:A48"/>
     <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38779,7 +38814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K133"/>
   <sheetViews>
     <sheetView topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -40991,11 +41026,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AF102"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -41075,7 +41110,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="150">
-        <f t="shared" ref="E2:E7" si="1">D2/COS(G2)/2</f>
+        <f t="shared" ref="E2:E3" si="1">D2/COS(G2)/2</f>
         <v>0</v>
       </c>
       <c r="G2" s="235">
@@ -41155,8 +41190,8 @@
         <f>C4/4</f>
         <v>54.957500000000003</v>
       </c>
-      <c r="E4" s="150">
-        <v>16</v>
+      <c r="E4" s="173">
+        <v>41.729017035954605</v>
       </c>
       <c r="F4" s="173">
         <v>41.729017035954605</v>
@@ -41199,8 +41234,8 @@
         <f t="shared" ref="D5:D7" si="3">C5/4</f>
         <v>100.1075</v>
       </c>
-      <c r="E5" s="150">
-        <v>19</v>
+      <c r="E5" s="173">
+        <v>76.011237282023842</v>
       </c>
       <c r="F5" s="173">
         <v>76.011237282023842</v>
@@ -41218,10 +41253,10 @@
       <c r="S5" s="6" t="s">
         <v>1008</v>
       </c>
-      <c r="T5" s="299" t="s">
+      <c r="T5" s="308" t="s">
         <v>1009</v>
       </c>
-      <c r="U5" s="299"/>
+      <c r="U5" s="308"/>
     </row>
     <row r="6" spans="1:32" s="173" customFormat="1" ht="16.5">
       <c r="A6" s="174" t="s">
@@ -41238,8 +41273,8 @@
         <f t="shared" si="3"/>
         <v>130.20750000000001</v>
       </c>
-      <c r="E6" s="150">
-        <v>37</v>
+      <c r="E6" s="173">
+        <v>98.866050779403352</v>
       </c>
       <c r="F6" s="173">
         <v>98.866050779403352</v>
@@ -41267,10 +41302,10 @@
       <c r="S6" s="173" t="s">
         <v>1010</v>
       </c>
-      <c r="T6" s="299" t="s">
+      <c r="T6" s="308" t="s">
         <v>1011</v>
       </c>
-      <c r="U6" s="299"/>
+      <c r="U6" s="308"/>
     </row>
     <row r="7" spans="1:32" ht="16.5">
       <c r="A7" s="54" t="str">
@@ -41288,8 +41323,8 @@
         <f t="shared" si="3"/>
         <v>145.25750000000002</v>
       </c>
-      <c r="E7" s="150">
-        <v>34</v>
+      <c r="E7" s="173">
+        <v>110.2934575280931</v>
       </c>
       <c r="F7" s="173">
         <v>110.2934575280931</v>
@@ -41322,12 +41357,12 @@
       <c r="B10" s="223"/>
       <c r="R10" s="230">
         <f>B29/B30*1.3</f>
-        <v>145.81423220973784</v>
-      </c>
-      <c r="U10" s="300" t="s">
+        <v>170.20536398467434</v>
+      </c>
+      <c r="U10" s="309" t="s">
         <v>1038</v>
       </c>
-      <c r="V10" s="300"/>
+      <c r="V10" s="309"/>
     </row>
     <row r="11" spans="1:32" ht="32.25" thickBot="1">
       <c r="N11" s="41" t="s">
@@ -41341,30 +41376,30 @@
       </c>
       <c r="R11" s="230">
         <f>E29/E30*1.3</f>
-        <v>93.122638146167574</v>
+        <v>87.676801801801801</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="U11" s="300"/>
-      <c r="V11" s="300"/>
+      <c r="U11" s="309"/>
+      <c r="V11" s="309"/>
     </row>
     <row r="12" spans="1:32" s="55" customFormat="1" ht="52.5" customHeight="1">
-      <c r="A12" s="306" t="s">
+      <c r="A12" s="302" t="s">
         <v>1002</v>
       </c>
-      <c r="B12" s="307"/>
-      <c r="C12" s="308"/>
-      <c r="D12" s="306" t="s">
+      <c r="B12" s="303"/>
+      <c r="C12" s="304"/>
+      <c r="D12" s="302" t="s">
         <v>1003</v>
       </c>
-      <c r="E12" s="307"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="306" t="s">
+      <c r="E12" s="303"/>
+      <c r="F12" s="304"/>
+      <c r="G12" s="302" t="s">
         <v>1004</v>
       </c>
-      <c r="H12" s="307"/>
-      <c r="I12" s="308"/>
+      <c r="H12" s="303"/>
+      <c r="I12" s="304"/>
       <c r="N12" s="114" t="str">
         <f>A1</f>
         <v>Story</v>
@@ -41388,20 +41423,20 @@
       <c r="T12" s="231" t="s">
         <v>725</v>
       </c>
-      <c r="U12" s="301" t="s">
+      <c r="U12" s="310" t="s">
         <v>1039</v>
       </c>
-      <c r="V12" s="302"/>
-      <c r="W12" s="309" t="s">
+      <c r="V12" s="311"/>
+      <c r="W12" s="305" t="s">
         <v>726</v>
       </c>
-      <c r="X12" s="310"/>
-      <c r="Y12" s="310"/>
-      <c r="Z12" s="310"/>
-      <c r="AA12" s="310"/>
-      <c r="AB12" s="310"/>
-      <c r="AC12" s="310"/>
-      <c r="AD12" s="311"/>
+      <c r="X12" s="306"/>
+      <c r="Y12" s="306"/>
+      <c r="Z12" s="306"/>
+      <c r="AA12" s="306"/>
+      <c r="AB12" s="306"/>
+      <c r="AC12" s="306"/>
+      <c r="AD12" s="307"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="156" t="s">
@@ -41602,7 +41637,7 @@
         <v>701</v>
       </c>
       <c r="E15" s="157">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F15" s="158" t="s">
         <v>699</v>
@@ -41624,15 +41659,15 @@
       </c>
       <c r="O15" s="90">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>41.729017035954605</v>
       </c>
       <c r="P15" s="150">
         <f t="shared" si="5"/>
-        <v>10.946570104827314</v>
+        <v>28.54935064935065</v>
       </c>
       <c r="Q15" s="150">
         <f>0.9*E30</f>
-        <v>53.317439999999991</v>
+        <v>65.934000000000012</v>
       </c>
       <c r="R15" s="224" t="str">
         <f t="shared" si="6"/>
@@ -41648,7 +41683,7 @@
       </c>
       <c r="U15" s="199">
         <f>80*SQRT(E23/E21)/10/SQRT(E17)</f>
-        <v>202.66507176405932</v>
+        <v>200.12284054271083</v>
       </c>
       <c r="V15" s="224" t="str">
         <f t="shared" si="7"/>
@@ -41673,18 +41708,18 @@
       </c>
       <c r="AB15" s="157">
         <f>E15</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC15" s="116" t="s">
         <v>727</v>
       </c>
       <c r="AD15" s="157">
         <f>E16</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" s="6">
         <f>P15/Q15</f>
-        <v>0.20530937165826635</v>
+        <v>0.43299891784740263</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -41692,7 +41727,7 @@
         <v>702</v>
       </c>
       <c r="B16" s="157">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C16" s="158" t="s">
         <v>699</v>
@@ -41701,7 +41736,7 @@
         <v>702</v>
       </c>
       <c r="E16" s="157">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F16" s="158" t="s">
         <v>699</v>
@@ -41723,15 +41758,15 @@
       </c>
       <c r="O16" s="150">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>76.011237282023842</v>
       </c>
       <c r="P16" s="150">
         <f t="shared" si="5"/>
-        <v>12.999051999482434</v>
+        <v>52.003896103896096</v>
       </c>
       <c r="Q16" s="150">
         <f>Q15</f>
-        <v>53.317439999999991</v>
+        <v>65.934000000000012</v>
       </c>
       <c r="R16" s="224" t="str">
         <f t="shared" si="6"/>
@@ -41747,7 +41782,7 @@
       </c>
       <c r="U16" s="199">
         <f>80*SQRT(E23/E21)/10/SQRT(E17)</f>
-        <v>202.66507176405932</v>
+        <v>200.12284054271083</v>
       </c>
       <c r="V16" s="224" t="str">
         <f t="shared" si="7"/>
@@ -41774,7 +41809,7 @@
       </c>
       <c r="AB16" s="157">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC16" s="116" t="str">
         <f t="shared" si="8"/>
@@ -41782,11 +41817,11 @@
       </c>
       <c r="AD16" s="157">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" s="173">
         <f t="shared" ref="AF16:AF18" si="9">P16/Q16</f>
-        <v>0.24380487884419125</v>
+        <v>0.78872654630230365</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -41822,15 +41857,15 @@
       </c>
       <c r="O17" s="150">
         <f t="shared" si="4"/>
-        <v>37</v>
+        <v>98.866050779403352</v>
       </c>
       <c r="P17" s="150">
         <f t="shared" si="5"/>
-        <v>25.313943367413163</v>
+        <v>67.640259740259751</v>
       </c>
       <c r="Q17" s="150">
         <f>0.9*B30</f>
-        <v>76.127040000000008</v>
+        <v>74.416319999999999</v>
       </c>
       <c r="R17" s="224" t="str">
         <f t="shared" si="6"/>
@@ -41846,7 +41881,7 @@
       </c>
       <c r="U17" s="199">
         <f>80*SQRT(B23/B21)/10/SQRT(B17)</f>
-        <v>331.58258848590492</v>
+        <v>338.80491904424736</v>
       </c>
       <c r="V17" s="224" t="str">
         <f t="shared" si="7"/>
@@ -41881,11 +41916,11 @@
       </c>
       <c r="AD17" s="157">
         <f>B16</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF17" s="173">
         <f t="shared" si="9"/>
-        <v>0.33252236481824538</v>
+        <v>0.90894389483731197</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="16.5">
@@ -41904,19 +41939,19 @@
       </c>
       <c r="O18" s="150">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>110.2934575280931</v>
       </c>
       <c r="P18" s="150">
         <f t="shared" si="5"/>
-        <v>23.261461472758043</v>
+        <v>75.458441558441564</v>
       </c>
       <c r="Q18" s="150">
         <f>Q17</f>
-        <v>76.127040000000008</v>
+        <v>74.416319999999999</v>
       </c>
       <c r="R18" s="224" t="str">
         <f t="shared" si="6"/>
-        <v>OK</v>
+        <v>NG</v>
       </c>
       <c r="S18" s="252">
         <f>I5</f>
@@ -41928,7 +41963,7 @@
       </c>
       <c r="U18" s="199">
         <f>80*SQRT(B23/B21)/10/SQRT(B17)</f>
-        <v>331.58258848590492</v>
+        <v>338.80491904424736</v>
       </c>
       <c r="V18" s="224" t="str">
         <f t="shared" si="7"/>
@@ -41963,11 +41998,11 @@
       </c>
       <c r="AD18" s="157">
         <f>AD17</f>
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AF18" s="173">
         <f t="shared" si="9"/>
-        <v>0.30556109199514442</v>
+        <v>1.0140039383624662</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="16.5">
@@ -42014,7 +42049,7 @@
       </c>
       <c r="B21" s="155">
         <f>B14*B16*2+(B13-B16-B16)*B15</f>
-        <v>17472</v>
+        <v>19776</v>
       </c>
       <c r="C21" s="93" t="s">
         <v>708</v>
@@ -42024,7 +42059,7 @@
       </c>
       <c r="E21" s="155">
         <f>E14*E16*2+(E13-E16-E16)*E15</f>
-        <v>8192</v>
+        <v>9700</v>
       </c>
       <c r="F21" s="93" t="s">
         <v>708</v>
@@ -42062,7 +42097,7 @@
       </c>
       <c r="B22" s="155">
         <f>(B15*(B13-B16-B16)^3)/12+2*(B14*B16*B16*B16/12+B14*B16*(B13*0.5-0.5*B16)^2)</f>
-        <v>517167616</v>
+        <v>588539392</v>
       </c>
       <c r="C22" s="93" t="s">
         <v>710</v>
@@ -42072,7 +42107,7 @@
       </c>
       <c r="E22" s="155">
         <f>(E15*(E13-E16-E16)^3)/12+2*(E14*E16*E16*E16/12+E14*E16*(E13*0.5-0.5*E16)^2)</f>
-        <v>229648682.66666669</v>
+        <v>264660833.33333334</v>
       </c>
       <c r="F22" s="93" t="s">
         <v>710</v>
@@ -42113,7 +42148,7 @@
       </c>
       <c r="B23" s="155">
         <f>(B13-B16-B16)*B15*B15*B15/12+B16*B14*B14*B14*2/12</f>
-        <v>99051264</v>
+        <v>117050112</v>
       </c>
       <c r="C23" s="93" t="s">
         <v>710</v>
@@ -42123,7 +42158,7 @@
       </c>
       <c r="E23" s="155">
         <f>(E13-E16-E16)*E15*E15*E15/12+E16*E14*E14*E14*2/12</f>
-        <v>17349290.666666664</v>
+        <v>20030833.333333332</v>
       </c>
       <c r="F23" s="93" t="s">
         <v>710</v>
@@ -42164,7 +42199,7 @@
       </c>
       <c r="B24" s="155">
         <f>(B13-B16-B16)*B15*B15*B15/3+B14*B16*B16*B16/3*2</f>
-        <v>2334656</v>
+        <v>3715648</v>
       </c>
       <c r="C24" s="93" t="s">
         <v>710</v>
@@ -42174,7 +42209,7 @@
       </c>
       <c r="E24" s="155">
         <f>(E13-E16-E16)*E15*E15*E15/3+E14*E16*E16*E16/3*2</f>
-        <v>356762.66666666663</v>
+        <v>573333.33333333337</v>
       </c>
       <c r="F24" s="93" t="s">
         <v>710</v>
@@ -42194,19 +42229,19 @@
       </c>
       <c r="O24" s="150">
         <f>1.1*M3*$E$30</f>
-        <v>78.198911999999993</v>
+        <v>96.70320000000001</v>
       </c>
       <c r="P24" s="198">
         <f t="shared" si="10"/>
-        <v>4443.119999999999</v>
+        <v>5494.5000000000009</v>
       </c>
       <c r="Q24" s="150">
         <f>1.1*O24/TAN(G4)</f>
-        <v>75.26645280000001</v>
+        <v>93.076830000000029</v>
       </c>
       <c r="R24" s="220">
         <f t="shared" si="11"/>
-        <v>2526.0788430472439</v>
+        <v>3312.9241691172861</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="18">
@@ -42215,7 +42250,7 @@
       </c>
       <c r="B25" s="155">
         <f>B22/(B13/2)</f>
-        <v>2585838.08</v>
+        <v>2942696.96</v>
       </c>
       <c r="C25" s="93" t="s">
         <v>714</v>
@@ -42225,7 +42260,7 @@
       </c>
       <c r="E25" s="155">
         <f>E22/(E13/2)</f>
-        <v>1148243.4133333333</v>
+        <v>1323304.1666666667</v>
       </c>
       <c r="F25" s="93" t="s">
         <v>714</v>
@@ -42245,19 +42280,19 @@
       </c>
       <c r="O25" s="150">
         <f>1.1*M3*$E$30</f>
-        <v>78.198911999999993</v>
+        <v>96.70320000000001</v>
       </c>
       <c r="P25" s="198">
         <f t="shared" si="10"/>
-        <v>4443.119999999999</v>
+        <v>5494.5000000000009</v>
       </c>
       <c r="Q25" s="150">
         <f>1.1*O25/TAN(G5)</f>
-        <v>75.26645280000001</v>
+        <v>93.076830000000029</v>
       </c>
       <c r="R25" s="220">
         <f t="shared" si="11"/>
-        <v>2526.0788430472439</v>
+        <v>3312.9241691172861</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="18">
@@ -42266,7 +42301,7 @@
       </c>
       <c r="B26" s="155">
         <f>B23/(B14/2)</f>
-        <v>660341.76000000001</v>
+        <v>780334.07999999996</v>
       </c>
       <c r="C26" s="93" t="s">
         <v>714</v>
@@ -42276,7 +42311,7 @@
       </c>
       <c r="E26" s="155">
         <f>E23/(E14/2)</f>
-        <v>173492.90666666665</v>
+        <v>200308.33333333331</v>
       </c>
       <c r="F26" s="93" t="s">
         <v>714</v>
@@ -42299,19 +42334,19 @@
       </c>
       <c r="O26" s="150">
         <f>1.1*M3*$B$30</f>
-        <v>111.652992</v>
+        <v>109.143936</v>
       </c>
       <c r="P26" s="198">
         <f t="shared" si="10"/>
-        <v>6343.92</v>
+        <v>6201.36</v>
       </c>
       <c r="Q26" s="150">
         <f>1.1*O26/TAN(G6)</f>
-        <v>107.46600480000004</v>
+        <v>105.05103840000004</v>
       </c>
       <c r="R26" s="220">
         <f t="shared" si="11"/>
-        <v>3082.1972687471334</v>
+        <v>3739.1273865496714</v>
       </c>
     </row>
     <row r="27" spans="1:32" ht="18">
@@ -42320,7 +42355,7 @@
       </c>
       <c r="B27" s="155">
         <f>B14*B13*B13*0.25-(B14-B15)*((B13-2*B16)^2)*0.25</f>
-        <v>2875008</v>
+        <v>3280512</v>
       </c>
       <c r="C27" s="93" t="s">
         <v>714</v>
@@ -42330,7 +42365,7 @@
       </c>
       <c r="E27" s="155">
         <f>E14*E13*E13*0.25-(E14-E15)*(E13-2*E16)^2*0.25</f>
-        <v>1285952</v>
+        <v>1497250</v>
       </c>
       <c r="F27" s="93" t="s">
         <v>714</v>
@@ -42353,19 +42388,19 @@
       </c>
       <c r="O27" s="150">
         <f>1.1*M3*$B$30</f>
-        <v>111.652992</v>
+        <v>109.143936</v>
       </c>
       <c r="P27" s="198">
         <f t="shared" si="10"/>
-        <v>6343.92</v>
+        <v>6201.36</v>
       </c>
       <c r="Q27" s="150">
         <f>1.1*O27/TAN(G7)</f>
-        <v>107.46600480000004</v>
+        <v>105.05103840000004</v>
       </c>
       <c r="R27" s="220">
         <f t="shared" si="11"/>
-        <v>3082.1972687471334</v>
+        <v>3739.1273865496714</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="18.75" thickBot="1">
@@ -42374,7 +42409,7 @@
       </c>
       <c r="B28" s="146">
         <f>B16*B14*B14*0.25*2+(B13-2*B16)*B15*B15*0.25</f>
-        <v>1002816</v>
+        <v>1182528</v>
       </c>
       <c r="C28" s="166" t="s">
         <v>714</v>
@@ -42384,7 +42419,7 @@
       </c>
       <c r="E28" s="146">
         <f>E16*E14*E14*0.25*2+(E13-2*E16)*E15*E15*0.25</f>
-        <v>265984</v>
+        <v>309250</v>
       </c>
       <c r="F28" s="166" t="s">
         <v>714</v>
@@ -42415,7 +42450,7 @@
       </c>
       <c r="B29" s="168">
         <f>B27*B17/1000</f>
-        <v>9487.5264000000006</v>
+        <v>10825.6896</v>
       </c>
       <c r="C29" s="99" t="s">
         <v>721</v>
@@ -42425,7 +42460,7 @@
       </c>
       <c r="E29" s="168">
         <f>E27*E17/1000</f>
-        <v>4243.6415999999999</v>
+        <v>4940.9250000000002</v>
       </c>
       <c r="F29" s="99" t="s">
         <v>721</v>
@@ -42459,7 +42494,7 @@
       </c>
       <c r="B30" s="94">
         <f>0.6*(B13-B16-B16)*B15*B17/10/10</f>
-        <v>84.585599999999999</v>
+        <v>82.684799999999996</v>
       </c>
       <c r="C30" s="95" t="s">
         <v>722</v>
@@ -42469,7 +42504,7 @@
       </c>
       <c r="E30" s="94">
         <f>0.6*(E13-E16-E16)*E15*E17/10/10</f>
-        <v>59.241599999999991</v>
+        <v>73.260000000000005</v>
       </c>
       <c r="F30" s="95" t="s">
         <v>722</v>
@@ -42509,7 +42544,7 @@
       </c>
       <c r="B31" s="168">
         <f>B14*0.5/B16</f>
-        <v>6.8181818181818183</v>
+        <v>5.7692307692307692</v>
       </c>
       <c r="C31" s="168" t="s">
         <v>955</v>
@@ -42519,7 +42554,7 @@
       </c>
       <c r="E31" s="168">
         <f>E14*0.5/E16</f>
-        <v>7.6923076923076925</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="F31" s="99"/>
       <c r="G31" s="168" t="s">
@@ -42647,19 +42682,19 @@
       </c>
       <c r="O33" s="198">
         <f>0.5*O37/SQRT((E23/10000)/(E21/100))*SQRT(E17/N6/PI()/PI())</f>
-        <v>0.48698856317610156</v>
+        <v>0.49317495112856352</v>
       </c>
       <c r="P33" s="150">
         <f>IF(O33&lt;=1.5,(0.658^(O33*O33))*E17*E21/100,0.877/O33/O33*E17*E21/100)</f>
-        <v>244.79059351914933</v>
+        <v>289.1174451097765</v>
       </c>
       <c r="Q33" s="150">
         <f>IF(AND(E31&lt;E33,E34&lt;E36),E29,0)</f>
-        <v>4243.6415999999999</v>
+        <v>4940.9250000000002</v>
       </c>
       <c r="R33" s="222">
         <f>IF(Q24/(0.85*M3*P33)&gt;=0.2,Q24/(0.85*M3*P33)+8*R24/(9*0.9*M3*Q33),Q24/(2*0.85*M3*P33)+R24/(0.9*M3*Q33))</f>
-        <v>0.79137155782570723</v>
+        <v>0.86747939707326405</v>
       </c>
       <c r="S33" s="217" t="str">
         <f t="shared" si="12"/>
@@ -42672,7 +42707,7 @@
       </c>
       <c r="B34" s="174">
         <f>(B13-B16-B16)/B15</f>
-        <v>29.666666666666668</v>
+        <v>29</v>
       </c>
       <c r="C34" s="174" t="s">
         <v>956</v>
@@ -42682,7 +42717,7 @@
       </c>
       <c r="E34" s="174">
         <f>(E13-E16-E16)/E15</f>
-        <v>46.75</v>
+        <v>37</v>
       </c>
       <c r="F34" s="93"/>
       <c r="G34" s="174" t="s">
@@ -42698,19 +42733,19 @@
       </c>
       <c r="O34" s="198">
         <f>0.5*O37/SQRT((E23/10000)/(E21/100))*SQRT(E17/N6/PI()/PI())</f>
-        <v>0.48698856317610156</v>
+        <v>0.49317495112856352</v>
       </c>
       <c r="P34" s="150">
         <f>IF(O34&lt;=1.5,(0.658^(O34*O34))*E17*E21/100,0.877/O34/O34*E17*E21/100)</f>
-        <v>244.79059351914933</v>
+        <v>289.1174451097765</v>
       </c>
       <c r="Q34" s="150">
         <f>IF(AND(E31&lt;E33,E34&lt;E36),E29,0)</f>
-        <v>4243.6415999999999</v>
+        <v>4940.9250000000002</v>
       </c>
       <c r="R34" s="222">
         <f>IF(Q25/(0.85*M3*P34)&gt;=0.2,Q25/(0.85*M3*P34)+8*R25/(9*0.9*M3*Q34),Q25/(2*0.85*M3*P34)+R25/(0.9*M3*Q34))</f>
-        <v>0.79137155782570723</v>
+        <v>0.86747939707326405</v>
       </c>
       <c r="S34" s="217" t="str">
         <f t="shared" si="12"/>
@@ -42749,19 +42784,19 @@
       </c>
       <c r="O35" s="198">
         <f>0.5*O37/SQRT((B23/10000)/(B21/100))*SQRT(B17/N6/PI()/PI())</f>
-        <v>0.2976500441565138</v>
+        <v>0.29130501523642655</v>
       </c>
       <c r="P35" s="150">
         <f>IF(O35&lt;=1.5,(0.658^(O35*O35))*B17*B21/100,0.877/O35/O35*B17*B21/100)</f>
-        <v>555.58713934417744</v>
+        <v>629.83573118086122</v>
       </c>
       <c r="Q35" s="150">
         <f>IF(AND(B31&lt;B33,B34&lt;B36),B29,0)</f>
-        <v>9487.5264000000006</v>
+        <v>10825.6896</v>
       </c>
       <c r="R35" s="222">
         <f>IF(Q26/(0.85*M3*P35)&gt;=0.2,Q26/(0.85*M3*P35)+8*R26/(9*0.9*M3*Q35),Q26/(2*0.85*M3*P35)+R26/(0.9*M3*Q35))</f>
-        <v>0.39562160436045013</v>
+        <v>0.40156956416614997</v>
       </c>
       <c r="S35" s="217" t="str">
         <f t="shared" si="12"/>
@@ -42800,19 +42835,19 @@
       </c>
       <c r="O36" s="198">
         <f>0.5*O37/SQRT((B23/10000)/(B21/100))*SQRT(B17/N6/PI()/PI())</f>
-        <v>0.2976500441565138</v>
+        <v>0.29130501523642655</v>
       </c>
       <c r="P36" s="150">
         <f>IF(O36&lt;=1.5,(0.658^(O36*O36))*B17*B21/100,0.877/O36/O36*B17*B21/100)</f>
-        <v>555.58713934417744</v>
+        <v>629.83573118086122</v>
       </c>
       <c r="Q36" s="150">
         <f>IF(AND(B31&lt;B33,B34&lt;B36),B29,0)</f>
-        <v>9487.5264000000006</v>
+        <v>10825.6896</v>
       </c>
       <c r="R36" s="222">
         <f>IF(Q27/(0.85*M3*P36)&gt;=0.2,Q27/(0.85*M3*P36)+8*R27/(9*0.9*M3*Q36),Q27/(2*0.85*M3*P36)+R27/(0.9*M3*Q36))</f>
-        <v>0.39562160436045013</v>
+        <v>0.40156956416614997</v>
       </c>
       <c r="S36" s="217" t="str">
         <f t="shared" si="12"/>
@@ -42842,35 +42877,35 @@
     </row>
     <row r="38" spans="1:27" s="173" customFormat="1">
       <c r="N38" s="227"/>
-      <c r="O38" s="299" t="s">
+      <c r="O38" s="308" t="s">
         <v>976</v>
       </c>
-      <c r="P38" s="299" t="s">
+      <c r="P38" s="308" t="s">
         <v>973</v>
       </c>
-      <c r="Q38" s="299"/>
+      <c r="Q38" s="308"/>
     </row>
     <row r="39" spans="1:27" s="173" customFormat="1">
       <c r="N39" s="227"/>
-      <c r="O39" s="299"/>
-      <c r="P39" s="299"/>
-      <c r="Q39" s="299"/>
+      <c r="O39" s="308"/>
+      <c r="P39" s="308"/>
+      <c r="Q39" s="308"/>
     </row>
     <row r="40" spans="1:27" s="173" customFormat="1">
       <c r="N40" s="227"/>
-      <c r="O40" s="299" t="s">
+      <c r="O40" s="308" t="s">
         <v>977</v>
       </c>
-      <c r="P40" s="299" t="s">
+      <c r="P40" s="308" t="s">
         <v>974</v>
       </c>
-      <c r="Q40" s="299"/>
+      <c r="Q40" s="308"/>
     </row>
     <row r="41" spans="1:27" s="173" customFormat="1">
       <c r="N41" s="227"/>
-      <c r="O41" s="299"/>
-      <c r="P41" s="299"/>
-      <c r="Q41" s="299"/>
+      <c r="O41" s="308"/>
+      <c r="P41" s="308"/>
+      <c r="Q41" s="308"/>
     </row>
     <row r="42" spans="1:27" s="173" customFormat="1">
       <c r="N42" s="227"/>
@@ -42902,21 +42937,21 @@
       <c r="AA46" s="173"/>
     </row>
     <row r="47" spans="1:27" ht="35.25" customHeight="1">
-      <c r="A47" s="306" t="s">
+      <c r="A47" s="302" t="s">
         <v>835</v>
       </c>
-      <c r="B47" s="307"/>
-      <c r="C47" s="308"/>
-      <c r="D47" s="306" t="s">
+      <c r="B47" s="303"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="302" t="s">
         <v>828</v>
       </c>
-      <c r="E47" s="307"/>
-      <c r="F47" s="308"/>
-      <c r="G47" s="306" t="s">
+      <c r="E47" s="303"/>
+      <c r="F47" s="304"/>
+      <c r="G47" s="302" t="s">
         <v>829</v>
       </c>
-      <c r="H47" s="307"/>
-      <c r="I47" s="308"/>
+      <c r="H47" s="303"/>
+      <c r="I47" s="304"/>
       <c r="N47" s="41" t="s">
         <v>729</v>
       </c>
@@ -42977,16 +43012,16 @@
       <c r="S48" s="152" t="s">
         <v>740</v>
       </c>
-      <c r="T48" s="309" t="s">
+      <c r="T48" s="305" t="s">
         <v>726</v>
       </c>
-      <c r="U48" s="310"/>
-      <c r="V48" s="310"/>
-      <c r="W48" s="310"/>
-      <c r="X48" s="310"/>
-      <c r="Y48" s="310"/>
-      <c r="Z48" s="310"/>
-      <c r="AA48" s="311"/>
+      <c r="U48" s="306"/>
+      <c r="V48" s="306"/>
+      <c r="W48" s="306"/>
+      <c r="X48" s="306"/>
+      <c r="Y48" s="306"/>
+      <c r="Z48" s="306"/>
+      <c r="AA48" s="307"/>
     </row>
     <row r="49" spans="1:27" ht="24" customHeight="1">
       <c r="A49" s="156" t="s">
@@ -43193,11 +43228,11 @@
       </c>
       <c r="O51" s="150">
         <f>1.25*M3*$E$30</f>
-        <v>88.86239999999998</v>
+        <v>109.89000000000001</v>
       </c>
       <c r="P51" s="198">
         <f>O51*S15/2</f>
-        <v>4443.119999999999</v>
+        <v>5494.5000000000009</v>
       </c>
       <c r="Q51" s="194">
         <f t="shared" si="13"/>
@@ -43205,11 +43240,11 @@
       </c>
       <c r="R51" s="150">
         <f t="shared" si="14"/>
-        <v>129.8852870245633</v>
+        <v>160.620174462194</v>
       </c>
       <c r="S51" s="226">
         <f>(E57/(4000/SIN(Q51)))/((E22/3500)+(E57/(4000/SIN(Q51))))*P51</f>
-        <v>1917.0411569527553</v>
+        <v>2181.5758308827149</v>
       </c>
       <c r="T51" s="169" t="s">
         <v>739</v>
@@ -43273,11 +43308,11 @@
       </c>
       <c r="O52" s="150">
         <f>1.25*M3*$E$30</f>
-        <v>88.86239999999998</v>
+        <v>109.89000000000001</v>
       </c>
       <c r="P52" s="198">
         <f>O52*S16/2</f>
-        <v>4443.119999999999</v>
+        <v>5494.5000000000009</v>
       </c>
       <c r="Q52" s="194">
         <f t="shared" si="13"/>
@@ -43285,11 +43320,11 @@
       </c>
       <c r="R52" s="150">
         <f t="shared" si="14"/>
-        <v>129.8852870245633</v>
+        <v>160.620174462194</v>
       </c>
       <c r="S52" s="226">
         <f>S51</f>
-        <v>1917.0411569527553</v>
+        <v>2181.5758308827149</v>
       </c>
       <c r="T52" s="169" t="s">
         <v>739</v>
@@ -43338,11 +43373,11 @@
       </c>
       <c r="O53" s="150">
         <f>1.25*M3*$B$30</f>
-        <v>126.8784</v>
+        <v>124.02719999999999</v>
       </c>
       <c r="P53" s="198">
         <f>O53*S17/2</f>
-        <v>6343.92</v>
+        <v>6201.36</v>
       </c>
       <c r="Q53" s="194">
         <f t="shared" si="13"/>
@@ -43350,11 +43385,11 @@
       </c>
       <c r="R53" s="150">
         <f t="shared" si="14"/>
-        <v>185.45118521688991</v>
+        <v>181.28374285246542</v>
       </c>
       <c r="S53" s="226">
         <f>(E59/(4000/SIN(Q53)))/((E24/3500)+(E59/(4000/SIN(Q53))))*P53</f>
-        <v>3261.7227312528667</v>
+        <v>2462.2326134503282</v>
       </c>
       <c r="T53" s="169" t="s">
         <v>739</v>
@@ -43409,11 +43444,11 @@
       </c>
       <c r="O54" s="150">
         <f>1.25*M3*$B$30</f>
-        <v>126.8784</v>
+        <v>124.02719999999999</v>
       </c>
       <c r="P54" s="198">
         <f>O54*S18/2</f>
-        <v>6343.92</v>
+        <v>6201.36</v>
       </c>
       <c r="Q54" s="194">
         <f t="shared" si="13"/>
@@ -43421,11 +43456,11 @@
       </c>
       <c r="R54" s="150">
         <f t="shared" si="14"/>
-        <v>185.45118521688991</v>
+        <v>181.28374285246542</v>
       </c>
       <c r="S54" s="226">
         <f>S53</f>
-        <v>3261.7227312528667</v>
+        <v>2462.2326134503282</v>
       </c>
       <c r="T54" s="169" t="s">
         <v>739</v>
@@ -43728,11 +43763,11 @@
       </c>
       <c r="R60" s="228">
         <f t="shared" si="16"/>
-        <v>0.98160443212235138</v>
+        <v>1.1760834515742589</v>
       </c>
       <c r="S60" s="217" t="str">
         <f t="shared" si="17"/>
-        <v>OK</v>
+        <v>NG</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="18">
@@ -43783,11 +43818,11 @@
       </c>
       <c r="R61" s="228">
         <f t="shared" si="16"/>
-        <v>0.98160443212235138</v>
+        <v>1.1760834515742589</v>
       </c>
       <c r="S61" s="217" t="str">
         <f t="shared" si="17"/>
-        <v>OK</v>
+        <v>NG</v>
       </c>
     </row>
     <row r="62" spans="1:27" ht="18">
@@ -43838,7 +43873,7 @@
       </c>
       <c r="R62" s="228">
         <f t="shared" si="16"/>
-        <v>0.83438657603213773</v>
+        <v>0.73217175876190055</v>
       </c>
       <c r="S62" s="217" t="str">
         <f t="shared" si="17"/>
@@ -43893,7 +43928,7 @@
       </c>
       <c r="R63" s="228">
         <f t="shared" si="16"/>
-        <v>0.83438657603213773</v>
+        <v>0.73217175876190055</v>
       </c>
       <c r="S63" s="217" t="str">
         <f t="shared" si="17"/>
@@ -44012,13 +44047,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I66" s="99"/>
-      <c r="O66" s="299" t="s">
+      <c r="O66" s="308" t="s">
         <v>976</v>
       </c>
-      <c r="P66" s="299" t="s">
+      <c r="P66" s="308" t="s">
         <v>973</v>
       </c>
-      <c r="Q66" s="299"/>
+      <c r="Q66" s="308"/>
       <c r="U66" s="62"/>
       <c r="V66" s="62"/>
       <c r="W66" s="62"/>
@@ -44051,9 +44086,9 @@
         <v>13.325044772225652</v>
       </c>
       <c r="I67" s="93"/>
-      <c r="O67" s="299"/>
-      <c r="P67" s="299"/>
-      <c r="Q67" s="299"/>
+      <c r="O67" s="308"/>
+      <c r="P67" s="308"/>
+      <c r="Q67" s="308"/>
       <c r="U67" s="62"/>
       <c r="V67" s="62"/>
       <c r="W67" s="62"/>
@@ -44086,13 +44121,13 @@
         <v>8.5280286542244177</v>
       </c>
       <c r="I68" s="93"/>
-      <c r="O68" s="299" t="s">
+      <c r="O68" s="308" t="s">
         <v>977</v>
       </c>
-      <c r="P68" s="299" t="s">
+      <c r="P68" s="308" t="s">
         <v>974</v>
       </c>
-      <c r="Q68" s="299"/>
+      <c r="Q68" s="308"/>
       <c r="U68" s="62"/>
       <c r="V68" s="62"/>
       <c r="W68" s="62"/>
@@ -44125,9 +44160,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I69" s="93"/>
-      <c r="O69" s="299"/>
-      <c r="P69" s="299"/>
-      <c r="Q69" s="299"/>
+      <c r="O69" s="308"/>
+      <c r="P69" s="308"/>
+      <c r="Q69" s="308"/>
     </row>
     <row r="70" spans="1:29">
       <c r="A70" s="163" t="s">
@@ -44220,21 +44255,21 @@
       <c r="AA76" s="173"/>
     </row>
     <row r="77" spans="1:29" ht="52.5" customHeight="1">
-      <c r="A77" s="306" t="s">
+      <c r="A77" s="302" t="s">
         <v>834</v>
       </c>
-      <c r="B77" s="307"/>
-      <c r="C77" s="308"/>
-      <c r="D77" s="306" t="s">
+      <c r="B77" s="303"/>
+      <c r="C77" s="304"/>
+      <c r="D77" s="302" t="s">
         <v>827</v>
       </c>
-      <c r="E77" s="307"/>
-      <c r="F77" s="308"/>
-      <c r="G77" s="306" t="s">
+      <c r="E77" s="303"/>
+      <c r="F77" s="304"/>
+      <c r="G77" s="302" t="s">
         <v>826</v>
       </c>
-      <c r="H77" s="307"/>
-      <c r="I77" s="308"/>
+      <c r="H77" s="303"/>
+      <c r="I77" s="304"/>
       <c r="N77" s="172" t="s">
         <v>754</v>
       </c>
@@ -44301,16 +44336,16 @@
       <c r="R78" s="174" t="s">
         <v>1030</v>
       </c>
-      <c r="S78" s="303" t="s">
+      <c r="S78" s="299" t="s">
         <v>726</v>
       </c>
-      <c r="T78" s="304"/>
-      <c r="U78" s="304"/>
-      <c r="V78" s="304"/>
-      <c r="W78" s="304"/>
-      <c r="X78" s="304"/>
-      <c r="Y78" s="304"/>
-      <c r="Z78" s="305"/>
+      <c r="T78" s="300"/>
+      <c r="U78" s="300"/>
+      <c r="V78" s="300"/>
+      <c r="W78" s="300"/>
+      <c r="X78" s="300"/>
+      <c r="Y78" s="300"/>
+      <c r="Z78" s="301"/>
       <c r="AA78" s="173"/>
     </row>
     <row r="79" spans="1:29">
@@ -44509,11 +44544,11 @@
       </c>
       <c r="O81" s="150">
         <f>1.1*M3*$E$30</f>
-        <v>78.198911999999993</v>
+        <v>96.70320000000001</v>
       </c>
       <c r="P81" s="150">
         <f>1.1*O81/SIN(Q51)</f>
-        <v>114.29905258161573</v>
+        <v>141.3457535267307</v>
       </c>
       <c r="Q81" s="177">
         <f t="shared" si="18"/>
@@ -44521,7 +44556,7 @@
       </c>
       <c r="R81" s="174">
         <f>(O81+O80+O79)-P81*SIN(Q81)</f>
-        <v>-7.8198912000000007</v>
+        <v>-9.6703200000000038</v>
       </c>
       <c r="S81" s="169" t="s">
         <v>739</v>
@@ -44586,11 +44621,11 @@
       </c>
       <c r="O82" s="150">
         <f>1.1*M3*$E$30</f>
-        <v>78.198911999999993</v>
+        <v>96.70320000000001</v>
       </c>
       <c r="P82" s="150">
         <f>1.1*O82/SIN(Q52)</f>
-        <v>114.29905258161573</v>
+        <v>141.3457535267307</v>
       </c>
       <c r="Q82" s="177">
         <f t="shared" si="18"/>
@@ -44598,7 +44633,7 @@
       </c>
       <c r="R82" s="174">
         <f>(O82+O81+O80+O79)-P82*SIN(Q82)</f>
-        <v>70.379020799999992</v>
+        <v>87.032880000000006</v>
       </c>
       <c r="S82" s="169" t="s">
         <v>739</v>
@@ -44648,11 +44683,11 @@
       </c>
       <c r="O83" s="150">
         <f>1.1*M3*$B$30</f>
-        <v>111.652992</v>
+        <v>109.143936</v>
       </c>
       <c r="P83" s="150">
         <f>1.1*O83/SIN(Q53)</f>
-        <v>163.19704299086311</v>
+        <v>159.52969371016957</v>
       </c>
       <c r="Q83" s="177">
         <f t="shared" si="18"/>
@@ -44660,7 +44695,7 @@
       </c>
       <c r="R83" s="174">
         <f>(O83+O82+O81+O80+O79)-P83*SIN(Q83)</f>
-        <v>145.23252479999999</v>
+        <v>182.49200640000001</v>
       </c>
       <c r="S83" s="169" t="s">
         <v>739</v>
@@ -44716,11 +44751,11 @@
       </c>
       <c r="O84" s="150">
         <f>1.1*M3*$B$30</f>
-        <v>111.652992</v>
+        <v>109.143936</v>
       </c>
       <c r="P84" s="150">
         <f>1.1*O84/SIN(Q54)</f>
-        <v>163.19704299086311</v>
+        <v>159.52969371016957</v>
       </c>
       <c r="Q84" s="177">
         <f t="shared" si="18"/>
@@ -44728,7 +44763,7 @@
       </c>
       <c r="R84" s="174">
         <f>(O84+O83+O82+O81+O80+O79)-P84*SIN(Q84)</f>
-        <v>256.8855168</v>
+        <v>291.63594240000009</v>
       </c>
       <c r="S84" s="169" t="s">
         <v>739</v>
@@ -45149,7 +45184,7 @@
       </c>
       <c r="S91" s="253">
         <f t="shared" si="21"/>
-        <v>-1.6702433706782958E-2</v>
+        <v>-2.0654747565206206E-2</v>
       </c>
       <c r="T91" s="228" t="str">
         <f t="shared" si="22"/>
@@ -45208,7 +45243,7 @@
       </c>
       <c r="S92" s="228">
         <f t="shared" si="21"/>
-        <v>0.15032190336104659</v>
+        <v>0.18589272808685578</v>
       </c>
       <c r="T92" s="228" t="str">
         <f t="shared" si="22"/>
@@ -45267,7 +45302,7 @@
       </c>
       <c r="S93" s="228">
         <f t="shared" si="21"/>
-        <v>0.2100516469535593</v>
+        <v>0.26394050886994902</v>
       </c>
       <c r="T93" s="228" t="str">
         <f t="shared" si="22"/>
@@ -45326,7 +45361,7 @@
       </c>
       <c r="S94" s="228">
         <f t="shared" si="21"/>
-        <v>0.37153678872321189</v>
+        <v>0.42179677104927243</v>
       </c>
       <c r="T94" s="228" t="str">
         <f t="shared" si="22"/>
@@ -45422,13 +45457,13 @@
         <v>13.325044772225652</v>
       </c>
       <c r="I97" s="93"/>
-      <c r="O97" s="299" t="s">
+      <c r="O97" s="308" t="s">
         <v>976</v>
       </c>
-      <c r="P97" s="299" t="s">
+      <c r="P97" s="308" t="s">
         <v>973</v>
       </c>
-      <c r="Q97" s="299"/>
+      <c r="Q97" s="308"/>
     </row>
     <row r="98" spans="1:17">
       <c r="A98" s="200" t="s">
@@ -45455,9 +45490,9 @@
         <v>8.5280286542244177</v>
       </c>
       <c r="I98" s="93"/>
-      <c r="O98" s="299"/>
-      <c r="P98" s="299"/>
-      <c r="Q98" s="299"/>
+      <c r="O98" s="308"/>
+      <c r="P98" s="308"/>
+      <c r="Q98" s="308"/>
     </row>
     <row r="99" spans="1:17">
       <c r="A99" s="200" t="s">
@@ -45484,13 +45519,13 @@
         <v>40.4</v>
       </c>
       <c r="I99" s="93"/>
-      <c r="O99" s="299" t="s">
+      <c r="O99" s="308" t="s">
         <v>977</v>
       </c>
-      <c r="P99" s="299" t="s">
+      <c r="P99" s="308" t="s">
         <v>974</v>
       </c>
-      <c r="Q99" s="299"/>
+      <c r="Q99" s="308"/>
     </row>
     <row r="100" spans="1:17">
       <c r="A100" s="163" t="s">
@@ -45517,9 +45552,9 @@
         <v>138.58046563114678</v>
       </c>
       <c r="I100" s="93"/>
-      <c r="O100" s="299"/>
-      <c r="P100" s="299"/>
-      <c r="Q100" s="299"/>
+      <c r="O100" s="308"/>
+      <c r="P100" s="308"/>
+      <c r="Q100" s="308"/>
     </row>
     <row r="101" spans="1:17" ht="16.5" thickBot="1">
       <c r="A101" s="202" t="s">
@@ -45561,6 +45596,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="O97:O98"/>
+    <mergeCell ref="P97:Q98"/>
+    <mergeCell ref="O99:O100"/>
+    <mergeCell ref="P99:Q100"/>
+    <mergeCell ref="O66:O67"/>
+    <mergeCell ref="P66:Q67"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="P68:Q69"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="U10:V11"/>
+    <mergeCell ref="U12:V12"/>
     <mergeCell ref="S78:Z78"/>
     <mergeCell ref="A77:C77"/>
     <mergeCell ref="D77:F77"/>
@@ -45575,20 +45624,6 @@
     <mergeCell ref="G77:I77"/>
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="P40:Q41"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="U10:V11"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="O97:O98"/>
-    <mergeCell ref="P97:Q98"/>
-    <mergeCell ref="O99:O100"/>
-    <mergeCell ref="P99:Q100"/>
-    <mergeCell ref="O66:O67"/>
-    <mergeCell ref="P66:Q67"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="P68:Q69"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45600,11 +45635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F103" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N89" sqref="N89:N92"/>
+    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -45680,7 +45715,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="177">
-        <f t="shared" ref="E2:E7" si="1">D2/COS(G2)/2</f>
+        <f t="shared" ref="E2:E3" si="1">D2/COS(G2)/2</f>
         <v>0</v>
       </c>
       <c r="G2" s="239">
@@ -45752,8 +45787,8 @@
         <f>C4/4</f>
         <v>54.957500000000003</v>
       </c>
-      <c r="E4" s="177">
-        <v>54.59</v>
+      <c r="E4" s="173">
+        <v>38.860820927059699</v>
       </c>
       <c r="F4" s="173">
         <v>38.860820927059699</v>
@@ -45790,8 +45825,8 @@
         <f t="shared" si="0"/>
         <v>100.1075</v>
       </c>
-      <c r="E5" s="177">
-        <v>107.14</v>
+      <c r="E5" s="173">
+        <v>70.786692097632297</v>
       </c>
       <c r="F5" s="173">
         <v>70.786692097632297</v>
@@ -45828,8 +45863,8 @@
         <f t="shared" si="0"/>
         <v>130.20750000000001</v>
       </c>
-      <c r="E6" s="177">
-        <v>124.96</v>
+      <c r="E6" s="173">
+        <v>92.070606211347382</v>
       </c>
       <c r="F6" s="173">
         <v>92.070606211347382</v>
@@ -45873,8 +45908,8 @@
         <f t="shared" si="0"/>
         <v>145.25750000000002</v>
       </c>
-      <c r="E7" s="177">
-        <v>127.7</v>
+      <c r="E7" s="173">
+        <v>102.71256326820493</v>
       </c>
       <c r="F7" s="173">
         <v>102.71256326820493</v>
@@ -45898,9 +45933,9 @@
       <c r="D9" s="175"/>
       <c r="E9" s="175"/>
       <c r="P9" s="175"/>
-      <c r="Q9" s="317"/>
-      <c r="R9" s="317"/>
-      <c r="S9" s="317"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="312"/>
       <c r="T9" s="62"/>
       <c r="U9" s="62"/>
       <c r="V9" s="62"/>
@@ -45942,11 +45977,11 @@
         <f t="shared" ref="B11:B17" si="3">E1</f>
         <v>axial force of brace (Tf)</v>
       </c>
-      <c r="C11" s="315" t="s">
+      <c r="C11" s="319" t="s">
         <v>761</v>
       </c>
-      <c r="D11" s="315"/>
-      <c r="E11" s="315"/>
+      <c r="D11" s="319"/>
+      <c r="E11" s="319"/>
       <c r="F11" s="174" t="s">
         <v>763</v>
       </c>
@@ -45961,7 +45996,7 @@
       </c>
       <c r="K11" s="173">
         <f>E4/F4</f>
-        <v>1.4047567369321246</v>
+        <v>1</v>
       </c>
       <c r="M11" s="114">
         <v>20</v>
@@ -46015,8 +46050,8 @@
         <v>#DIV/0!</v>
       </c>
       <c r="K12" s="173">
-        <f t="shared" ref="K12:K17" si="9">E5/F5</f>
-        <v>1.5135613322943178</v>
+        <f t="shared" ref="K12:K14" si="9">E5/F5</f>
+        <v>1</v>
       </c>
       <c r="M12" s="114">
         <v>20</v>
@@ -46070,7 +46105,7 @@
       </c>
       <c r="K13" s="173">
         <f t="shared" si="9"/>
-        <v>1.3572192596750721</v>
+        <v>1</v>
       </c>
       <c r="M13" s="114">
         <v>20</v>
@@ -46095,28 +46130,28 @@
       </c>
       <c r="B14" s="182">
         <f t="shared" si="3"/>
-        <v>54.59</v>
+        <v>38.860820927059699</v>
       </c>
       <c r="C14" s="157">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D14" s="180" t="s">
         <v>759</v>
       </c>
       <c r="E14" s="219">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F14" s="174">
         <f>C14*E14/100</f>
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="G14" s="174">
         <f>0.9*$K$5*F14</f>
-        <v>501.92999999999995</v>
+        <v>106.91999999999999</v>
       </c>
       <c r="H14" s="241">
         <f>B14/G14</f>
-        <v>0.10876018568326262</v>
+        <v>0.36345698584979147</v>
       </c>
       <c r="I14" s="217" t="str">
         <f t="shared" si="8"/>
@@ -46124,7 +46159,7 @@
       </c>
       <c r="K14" s="173">
         <f t="shared" si="9"/>
-        <v>1.2432753690173948</v>
+        <v>1</v>
       </c>
       <c r="M14" s="114">
         <v>30</v>
@@ -46149,28 +46184,28 @@
       </c>
       <c r="B15" s="182">
         <f t="shared" si="3"/>
-        <v>107.14</v>
+        <v>70.786692097632297</v>
       </c>
       <c r="C15" s="157">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="D15" s="179" t="s">
         <v>759</v>
       </c>
       <c r="E15" s="219">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="F15" s="174">
         <f>C15*E15/100</f>
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="G15" s="174">
         <f t="shared" si="6"/>
-        <v>501.92999999999995</v>
+        <v>106.91999999999999</v>
       </c>
       <c r="H15" s="241">
         <f>B15/G15</f>
-        <v>0.2134560596099058</v>
+        <v>0.66205286286599607</v>
       </c>
       <c r="I15" s="217" t="str">
         <f t="shared" ref="I15:I17" si="10">IF(H15&lt;=1,"OK","NG")</f>
@@ -46199,28 +46234,28 @@
       </c>
       <c r="B16" s="182">
         <f t="shared" si="3"/>
-        <v>124.96</v>
+        <v>92.070606211347382</v>
       </c>
       <c r="C16" s="157">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D16" s="179" t="s">
         <v>759</v>
       </c>
       <c r="E16" s="219">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F16" s="174">
         <f t="shared" si="5"/>
-        <v>196</v>
+        <v>42.25</v>
       </c>
       <c r="G16" s="174">
         <f t="shared" si="6"/>
-        <v>582.12</v>
+        <v>125.48249999999999</v>
       </c>
       <c r="H16" s="241">
         <f>B16/G16</f>
-        <v>0.21466364323507178</v>
+        <v>0.73373264169384089</v>
       </c>
       <c r="I16" s="217" t="str">
         <f t="shared" si="10"/>
@@ -46251,28 +46286,28 @@
       </c>
       <c r="B17" s="182">
         <f t="shared" si="3"/>
-        <v>127.7</v>
+        <v>102.71256326820493</v>
       </c>
       <c r="C17" s="157">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="D17" s="179" t="s">
         <v>759</v>
       </c>
       <c r="E17" s="219">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="F17" s="174">
         <f t="shared" si="5"/>
-        <v>196</v>
+        <v>42.25</v>
       </c>
       <c r="G17" s="174">
         <f t="shared" si="6"/>
-        <v>582.12</v>
+        <v>125.48249999999999</v>
       </c>
       <c r="H17" s="241">
         <f>B17/G17</f>
-        <v>0.21937057651343367</v>
+        <v>0.81854093812447903</v>
       </c>
       <c r="I17" s="217" t="str">
         <f t="shared" si="10"/>
@@ -46547,7 +46582,7 @@
       </c>
       <c r="B25" s="174">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C25" s="174">
         <v>3.52</v>
@@ -46566,11 +46601,11 @@
       </c>
       <c r="G25" s="150">
         <f t="shared" si="14"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="H25" s="150">
         <f t="shared" si="15"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="J25" s="221">
         <f t="shared" si="16"/>
@@ -46578,7 +46613,7 @@
       </c>
       <c r="K25" s="211">
         <f t="shared" si="16"/>
-        <v>928012.79999999993</v>
+        <v>197683.19999999998</v>
       </c>
       <c r="M25" s="114">
         <v>60</v>
@@ -46597,7 +46632,7 @@
       </c>
       <c r="B26" s="174">
         <f t="shared" si="11"/>
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="C26" s="174">
         <v>3.52</v>
@@ -46616,11 +46651,11 @@
       </c>
       <c r="G26" s="150">
         <f t="shared" si="14"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="H26" s="150">
         <f t="shared" si="15"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="J26" s="221">
         <f t="shared" si="16"/>
@@ -46628,7 +46663,7 @@
       </c>
       <c r="K26" s="211">
         <f t="shared" si="16"/>
-        <v>928012.79999999993</v>
+        <v>197683.19999999998</v>
       </c>
       <c r="M26" s="114">
         <v>70</v>
@@ -46647,7 +46682,7 @@
       </c>
       <c r="B27" s="174">
         <f t="shared" si="11"/>
-        <v>196</v>
+        <v>42.25</v>
       </c>
       <c r="C27" s="174">
         <v>3.52</v>
@@ -46666,11 +46701,11 @@
       </c>
       <c r="G27" s="150">
         <f t="shared" si="14"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="H27" s="150">
         <f t="shared" si="15"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="J27" s="221">
         <f t="shared" si="16"/>
@@ -46678,7 +46713,7 @@
       </c>
       <c r="K27" s="211">
         <f t="shared" si="16"/>
-        <v>1076275.1999999997</v>
+        <v>232003.19999999998</v>
       </c>
       <c r="M27" s="114">
         <v>70</v>
@@ -46697,7 +46732,7 @@
       </c>
       <c r="B28" s="174">
         <f t="shared" si="11"/>
-        <v>196</v>
+        <v>42.25</v>
       </c>
       <c r="C28" s="174">
         <v>3.52</v>
@@ -46716,11 +46751,11 @@
       </c>
       <c r="G28" s="150">
         <f t="shared" si="14"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="H28" s="150">
         <f t="shared" si="15"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="J28" s="221">
         <f t="shared" si="16"/>
@@ -46728,7 +46763,7 @@
       </c>
       <c r="K28" s="211">
         <f t="shared" si="16"/>
-        <v>1076275.1999999997</v>
+        <v>232003.19999999998</v>
       </c>
       <c r="M28" s="114">
         <v>70</v>
@@ -46774,11 +46809,11 @@
       <c r="G30" s="223"/>
       <c r="J30" s="173">
         <f>G25*0.9</f>
-        <v>835.21151999999995</v>
+        <v>177.91487999999998</v>
       </c>
       <c r="K30" s="173">
         <f>H25*0.9</f>
-        <v>918.73267200000009</v>
+        <v>195.706368</v>
       </c>
       <c r="M30" s="114">
         <v>80</v>
@@ -46801,11 +46836,11 @@
       <c r="G31" s="223"/>
       <c r="J31" s="173">
         <f t="shared" ref="J31:K31" si="17">G26*0.9</f>
-        <v>835.21151999999995</v>
+        <v>177.91487999999998</v>
       </c>
       <c r="K31" s="173">
         <f t="shared" si="17"/>
-        <v>918.73267200000009</v>
+        <v>195.706368</v>
       </c>
       <c r="M31" s="114">
         <v>80</v>
@@ -46821,11 +46856,11 @@
     <row r="32" spans="1:22">
       <c r="J32" s="173">
         <f t="shared" ref="J32:K32" si="18">G27*0.9</f>
-        <v>968.64767999999981</v>
+        <v>208.80287999999999</v>
       </c>
       <c r="K32" s="173">
         <f t="shared" si="18"/>
-        <v>1065.5124479999999</v>
+        <v>229.68316800000002</v>
       </c>
       <c r="M32" s="114">
         <v>90</v>
@@ -46839,10 +46874,10 @@
       </c>
     </row>
     <row r="33" spans="1:22" ht="17.25" thickBot="1">
-      <c r="A33" s="316" t="s">
+      <c r="A33" s="320" t="s">
         <v>967</v>
       </c>
-      <c r="B33" s="316"/>
+      <c r="B33" s="320"/>
       <c r="D33" s="213" t="s">
         <v>970</v>
       </c>
@@ -46857,11 +46892,11 @@
       </c>
       <c r="J33" s="173">
         <f t="shared" ref="J33:K33" si="19">G28*0.9</f>
-        <v>968.64767999999981</v>
+        <v>208.80287999999999</v>
       </c>
       <c r="K33" s="173">
         <f t="shared" si="19"/>
-        <v>1065.5124479999999</v>
+        <v>229.68316800000002</v>
       </c>
       <c r="M33" s="114">
         <v>90</v>
@@ -46881,7 +46916,7 @@
       <c r="B34" s="168" t="s">
         <v>955</v>
       </c>
-      <c r="C34" s="318" t="s">
+      <c r="C34" s="313" t="s">
         <v>962</v>
       </c>
       <c r="D34" s="211" t="s">
@@ -46914,7 +46949,7 @@
       <c r="B35" s="174" t="s">
         <v>953</v>
       </c>
-      <c r="C35" s="319"/>
+      <c r="C35" s="314"/>
       <c r="E35" s="211"/>
       <c r="F35" s="211"/>
       <c r="G35" s="211"/>
@@ -46926,7 +46961,7 @@
       <c r="B36" s="174" t="s">
         <v>954</v>
       </c>
-      <c r="C36" s="319"/>
+      <c r="C36" s="314"/>
     </row>
     <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="200" t="s">
@@ -46935,7 +46970,7 @@
       <c r="B37" s="174" t="s">
         <v>956</v>
       </c>
-      <c r="C37" s="318" t="s">
+      <c r="C37" s="313" t="s">
         <v>965</v>
       </c>
       <c r="D37" s="212"/>
@@ -46947,7 +46982,7 @@
       <c r="B38" s="174" t="s">
         <v>957</v>
       </c>
-      <c r="C38" s="319"/>
+      <c r="C38" s="314"/>
       <c r="D38" s="212"/>
     </row>
     <row r="39" spans="1:22" ht="16.5" thickBot="1">
@@ -46957,7 +46992,7 @@
       <c r="B39" s="94" t="s">
         <v>958</v>
       </c>
-      <c r="C39" s="319"/>
+      <c r="C39" s="314"/>
     </row>
     <row r="40" spans="1:22" ht="16.5">
       <c r="A40" s="176" t="s">
@@ -46983,21 +47018,21 @@
     </row>
     <row r="43" spans="1:22" ht="16.5" thickBot="1"/>
     <row r="44" spans="1:22">
-      <c r="A44" s="306" t="s">
+      <c r="A44" s="302" t="s">
         <v>840</v>
       </c>
-      <c r="B44" s="307"/>
-      <c r="C44" s="308"/>
-      <c r="D44" s="306" t="s">
+      <c r="B44" s="303"/>
+      <c r="C44" s="304"/>
+      <c r="D44" s="302" t="s">
         <v>841</v>
       </c>
-      <c r="E44" s="307"/>
-      <c r="F44" s="308"/>
-      <c r="G44" s="306" t="s">
+      <c r="E44" s="303"/>
+      <c r="F44" s="304"/>
+      <c r="G44" s="302" t="s">
         <v>842</v>
       </c>
-      <c r="H44" s="307"/>
-      <c r="I44" s="308"/>
+      <c r="H44" s="303"/>
+      <c r="I44" s="304"/>
       <c r="K44" s="172" t="s">
         <v>773</v>
       </c>
@@ -47013,7 +47048,7 @@
         <v>698</v>
       </c>
       <c r="B45" s="157">
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="C45" s="158" t="s">
         <v>699</v>
@@ -47022,7 +47057,7 @@
         <v>698</v>
       </c>
       <c r="E45" s="157">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="F45" s="158" t="s">
         <v>699</v>
@@ -47051,22 +47086,22 @@
       <c r="O45" s="149" t="s">
         <v>775</v>
       </c>
-      <c r="P45" s="312" t="s">
+      <c r="P45" s="316" t="s">
         <v>758</v>
       </c>
-      <c r="Q45" s="313"/>
-      <c r="R45" s="313"/>
-      <c r="S45" s="313"/>
-      <c r="T45" s="313"/>
-      <c r="U45" s="313"/>
-      <c r="V45" s="314"/>
+      <c r="Q45" s="317"/>
+      <c r="R45" s="317"/>
+      <c r="S45" s="317"/>
+      <c r="T45" s="317"/>
+      <c r="U45" s="317"/>
+      <c r="V45" s="318"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="156" t="s">
         <v>700</v>
       </c>
       <c r="B46" s="157">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C46" s="158" t="s">
         <v>699</v>
@@ -47075,7 +47110,7 @@
         <v>700</v>
       </c>
       <c r="E46" s="157">
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="F46" s="158" t="s">
         <v>699</v>
@@ -47139,7 +47174,7 @@
         <v>701</v>
       </c>
       <c r="B47" s="157">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C47" s="158" t="s">
         <v>699</v>
@@ -47148,7 +47183,7 @@
         <v>701</v>
       </c>
       <c r="E47" s="157">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F47" s="158" t="s">
         <v>699</v>
@@ -47212,7 +47247,7 @@
         <v>702</v>
       </c>
       <c r="B48" s="157">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C48" s="158" t="s">
         <v>699</v>
@@ -47221,7 +47256,7 @@
         <v>702</v>
       </c>
       <c r="E48" s="157">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F48" s="158" t="s">
         <v>699</v>
@@ -47241,44 +47276,44 @@
       </c>
       <c r="L48" s="183">
         <f t="shared" si="20"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="M48" s="183">
         <f t="shared" si="20"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="N48" s="183">
         <f t="shared" si="21"/>
-        <v>689.01435110331113</v>
+        <v>146.77228780898932</v>
       </c>
       <c r="O48" s="197">
         <f>(M48-L48)*SIN(G4)*O52/4</f>
-        <v>13124.082878158324</v>
+        <v>2795.6626249331325</v>
       </c>
       <c r="P48" s="248">
         <f>E45</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q48" s="192" t="s">
         <v>759</v>
       </c>
       <c r="R48" s="248">
         <f>E46</f>
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="S48" s="192" t="s">
         <v>759</v>
       </c>
       <c r="T48" s="248">
         <f>E47</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="U48" s="192" t="s">
         <v>759</v>
       </c>
       <c r="V48" s="248">
         <f>E48</f>
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -47315,44 +47350,44 @@
       </c>
       <c r="L49" s="150">
         <f t="shared" si="20"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="M49" s="150">
         <f t="shared" si="20"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="N49" s="150">
         <f t="shared" si="21"/>
-        <v>689.01435110331113</v>
+        <v>146.77228780898932</v>
       </c>
       <c r="O49" s="197">
         <f>(M49-L49)*SIN(G5)*O52/4</f>
-        <v>13124.082878158324</v>
+        <v>2795.6626249331325</v>
       </c>
       <c r="P49" s="248">
         <f>P48</f>
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="Q49" s="193" t="s">
         <v>759</v>
       </c>
       <c r="R49" s="248">
         <f>R48</f>
-        <v>350</v>
+        <v>252</v>
       </c>
       <c r="S49" s="193" t="s">
         <v>759</v>
       </c>
       <c r="T49" s="248">
         <f>T48</f>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="U49" s="193" t="s">
         <v>759</v>
       </c>
       <c r="V49" s="248">
         <f>V48</f>
-        <v>50</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="16.5">
@@ -47371,44 +47406,44 @@
       </c>
       <c r="L50" s="150">
         <f t="shared" si="20"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="M50" s="150">
         <f t="shared" si="20"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="N50" s="150">
         <f t="shared" si="21"/>
-        <v>799.09356696005295</v>
+        <v>172.25358777582778</v>
       </c>
       <c r="O50" s="197">
         <f>(M50-L50)*SIN(G6)*O52/4</f>
-        <v>15220.829846858152</v>
+        <v>3281.020719539581</v>
       </c>
       <c r="P50" s="248">
         <f>B45</f>
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="Q50" s="193" t="s">
         <v>759</v>
       </c>
       <c r="R50" s="248">
         <f>B46</f>
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="S50" s="193" t="s">
         <v>759</v>
       </c>
       <c r="T50" s="248">
         <f>B47</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U50" s="193" t="s">
         <v>759</v>
       </c>
       <c r="V50" s="248">
         <f>B48</f>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="16.5">
@@ -47433,44 +47468,44 @@
       </c>
       <c r="L51" s="150">
         <f t="shared" si="20"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="M51" s="150">
         <f t="shared" si="20"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="N51" s="150">
         <f t="shared" si="21"/>
-        <v>799.09356696005295</v>
+        <v>172.25358777582778</v>
       </c>
       <c r="O51" s="197">
         <f>(M51-L51)*SIN(G7)*O52/4</f>
-        <v>15220.829846858152</v>
+        <v>3281.020719539581</v>
       </c>
       <c r="P51" s="248">
         <f>P50</f>
-        <v>700</v>
+        <v>360</v>
       </c>
       <c r="Q51" s="193" t="s">
         <v>759</v>
       </c>
       <c r="R51" s="248">
         <f>R50</f>
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="S51" s="193" t="s">
         <v>759</v>
       </c>
       <c r="T51" s="248">
         <f>T50</f>
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="U51" s="193" t="s">
         <v>759</v>
       </c>
       <c r="V51" s="248">
         <f>V50</f>
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -47503,7 +47538,7 @@
       </c>
       <c r="B53" s="174">
         <f>B46*B48*2+(B45-B48-B48)*B47</f>
-        <v>51800</v>
+        <v>21984</v>
       </c>
       <c r="C53" s="93" t="s">
         <v>708</v>
@@ -47513,7 +47548,7 @@
       </c>
       <c r="E53" s="174">
         <f>E46*E48*2+(E45-E48-E48)*E47</f>
-        <v>46200</v>
+        <v>13008</v>
       </c>
       <c r="F53" s="93" t="s">
         <v>708</v>
@@ -47536,7 +47571,7 @@
       </c>
       <c r="B54" s="174">
         <f>(B47*(B45-B48-B48)^3)/12+2*(B46*B48*B48*B48/12+B46*B48*(B45*0.5-0.5*B48)^2)</f>
-        <v>4208166666.6666665</v>
+        <v>520892928</v>
       </c>
       <c r="C54" s="93" t="s">
         <v>710</v>
@@ -47546,7 +47581,7 @@
       </c>
       <c r="E54" s="174">
         <f>(E47*(E45-E48-E48)^3)/12+2*(E46*E48*E48*E48/12+E46*E48*(E45*0.5-0.5*E48)^2)</f>
-        <v>1928500000</v>
+        <v>290417496</v>
       </c>
       <c r="F54" s="93" t="s">
         <v>710</v>
@@ -47581,7 +47616,7 @@
       </c>
       <c r="B55" s="174">
         <f>(B45-B48-B48)*B47*B47*B47/12+B48*B46*B46*B46*2/12</f>
-        <v>358389266.66666669</v>
+        <v>177553952</v>
       </c>
       <c r="C55" s="93" t="s">
         <v>710</v>
@@ -47591,7 +47626,7 @@
       </c>
       <c r="E55" s="174">
         <f>(E45-E48-E48)*E47*E47*E47/12+E48*E46*E46*E46*2/12</f>
-        <v>358023400</v>
+        <v>50710798</v>
       </c>
       <c r="F55" s="93" t="s">
         <v>710</v>
@@ -47632,7 +47667,7 @@
       </c>
       <c r="B56" s="174">
         <f>(B45-B48-B48)*B47*B47*B47/3+B46*B48*B48*B48/3*2</f>
-        <v>33557066.666666672</v>
+        <v>3688448</v>
       </c>
       <c r="C56" s="93" t="s">
         <v>710</v>
@@ -47642,7 +47677,7 @@
       </c>
       <c r="E56" s="174">
         <f>(E45-E48-E48)*E47*E47*E47/3+E46*E48*E48*E48/3*2</f>
-        <v>32093600</v>
+        <v>1290736</v>
       </c>
       <c r="F56" s="93" t="s">
         <v>710</v>
@@ -47688,7 +47723,7 @@
       </c>
       <c r="B57" s="174">
         <f>B54/(B45/2)</f>
-        <v>12023333.333333332</v>
+        <v>2893849.6</v>
       </c>
       <c r="C57" s="93" t="s">
         <v>714</v>
@@ -47698,7 +47733,7 @@
       </c>
       <c r="E57" s="174">
         <f>E54/(E45/2)</f>
-        <v>7714000</v>
+        <v>1659528.5485714285</v>
       </c>
       <c r="F57" s="93" t="s">
         <v>714</v>
@@ -47744,7 +47779,7 @@
       </c>
       <c r="B58" s="174">
         <f>B55/(B46/2)</f>
-        <v>2047938.6666666667</v>
+        <v>1003129.6723163842</v>
       </c>
       <c r="C58" s="93" t="s">
         <v>714</v>
@@ -47754,7 +47789,7 @@
       </c>
       <c r="E58" s="174">
         <f>E55/(E46/2)</f>
-        <v>2045848</v>
+        <v>402466.65079365077</v>
       </c>
       <c r="F58" s="93" t="s">
         <v>714</v>
@@ -47775,19 +47810,19 @@
       </c>
       <c r="L58" s="198">
         <f>0.5*L62/SQRT((E55/10000)/(E53/100))*SQRT(E49/M6/PI()/PI())</f>
-        <v>0.29095235734031905</v>
+        <v>0.41021509793203936</v>
       </c>
       <c r="M58" s="150">
         <f>IF(L58&lt;=1.5,(0.658^(L58*L58))*E49*E53/100,0.877/L58/L58*E49*E53/100)</f>
-        <v>1471.5266851828658</v>
+        <v>400.07017028213556</v>
       </c>
       <c r="N58" s="150">
         <f>IF(AND(E63&lt;E65,E66&lt;E68),E61,0)</f>
-        <v>29683.5</v>
+        <v>6113.3291999999992</v>
       </c>
       <c r="O58" s="228">
         <f>O59</f>
-        <v>0.98753545048048497</v>
+        <v>0.88326781237363627</v>
       </c>
       <c r="P58" s="217" t="str">
         <f t="shared" si="22"/>
@@ -47814,7 +47849,7 @@
       </c>
       <c r="B59" s="174">
         <f>B46*B45*B45*0.25-(B46-B47)*((B45-2*B48)^2)*0.25</f>
-        <v>13895000</v>
+        <v>3244032</v>
       </c>
       <c r="C59" s="93" t="s">
         <v>714</v>
@@ -47824,7 +47859,7 @@
       </c>
       <c r="E59" s="174">
         <f>E46*E45*E45*0.25-(E46-E47)*(E45-2*E48)^2*0.25</f>
-        <v>8995000</v>
+        <v>1852524</v>
       </c>
       <c r="F59" s="93" t="s">
         <v>714</v>
@@ -47845,19 +47880,19 @@
       </c>
       <c r="L59" s="198">
         <f>0.5*L62/SQRT((E55/10000)/(E53/100))*SQRT(E49/M6/PI()/PI())</f>
-        <v>0.29095235734031905</v>
+        <v>0.41021509793203936</v>
       </c>
       <c r="M59" s="150">
         <f>IF(L59&lt;=1.5,(0.658^(L59*L59))*E49*E53/100,0.877/L59/L59*E49*E53/100)</f>
-        <v>1471.5266851828658</v>
+        <v>400.07017028213556</v>
       </c>
       <c r="N59" s="150">
         <f>IF(AND(E63&lt;E65,E66&lt;E68),E61,0)</f>
-        <v>29683.5</v>
+        <v>6113.3291999999992</v>
       </c>
       <c r="O59" s="228">
         <f>IF(N49/(0.85*M59)&gt;=0.2,N49/(0.85*M59)+8*O49/(9*0.9*N59),N49/(2*0.85*M59)+O49/(0.9*N59))</f>
-        <v>0.98753545048048497</v>
+        <v>0.88326781237363627</v>
       </c>
       <c r="P59" s="217" t="str">
         <f t="shared" si="22"/>
@@ -47884,7 +47919,7 @@
       </c>
       <c r="B60" s="146">
         <f>B48*B46*B46*0.25*2+(B45-2*B48)*B47*B47*0.25</f>
-        <v>3180100</v>
+        <v>1523760</v>
       </c>
       <c r="C60" s="166" t="s">
         <v>714</v>
@@ -47894,7 +47929,7 @@
       </c>
       <c r="E60" s="146">
         <f>E48*E46*E46*0.25*2+(E45-2*E48)*E47*E47*0.25</f>
-        <v>3140900</v>
+        <v>612726</v>
       </c>
       <c r="F60" s="166" t="s">
         <v>714</v>
@@ -47915,19 +47950,19 @@
       </c>
       <c r="L60" s="198">
         <f>0.5*L62/SQRT((B55/10000)/(B53/100))*SQRT(B49/M6/PI()/PI())</f>
-        <v>0.3079243131364498</v>
+        <v>0.28499995065561878</v>
       </c>
       <c r="M60" s="150">
         <f>IF(L60&lt;=1.5,(0.658^(L60*L60))*B49*B53/100,0.877/L60/L60*B49*B53/100)</f>
-        <v>1642.8895024937906</v>
+        <v>701.22284844356875</v>
       </c>
       <c r="N60" s="150">
         <f>IF(AND(B63&lt;B65,B66&lt;B68),B61,0)</f>
-        <v>45853.5</v>
+        <v>10705.3056</v>
       </c>
       <c r="O60" s="228">
         <f>IF(N50/(0.85*M60)&gt;=0.2,N50/(0.85*M60)+8*O50/(9*0.9*N60),N50/(2*0.85*M60)+O50/(0.9*N60))</f>
-        <v>0.90007633986117097</v>
+        <v>0.59169867987494862</v>
       </c>
       <c r="P60" s="217" t="str">
         <f t="shared" si="22"/>
@@ -47940,7 +47975,7 @@
       </c>
       <c r="B61" s="168">
         <f>B59*B49/1000</f>
-        <v>45853.5</v>
+        <v>10705.3056</v>
       </c>
       <c r="C61" s="99" t="s">
         <v>721</v>
@@ -47950,7 +47985,7 @@
       </c>
       <c r="E61" s="168">
         <f>E59*E49/1000</f>
-        <v>29683.5</v>
+        <v>6113.3291999999992</v>
       </c>
       <c r="F61" s="99" t="s">
         <v>721</v>
@@ -47971,19 +48006,19 @@
       </c>
       <c r="L61" s="198">
         <f>0.5*L62/SQRT((B55/10000)/(B53/100))*SQRT(B49/M6/PI()/PI())</f>
-        <v>0.3079243131364498</v>
+        <v>0.28499995065561878</v>
       </c>
       <c r="M61" s="150">
         <f>IF(L61&lt;=1.5,(0.658^(L61*L61))*B49*B53/100,0.877/L61/L61*B49*B53/100)</f>
-        <v>1642.8895024937906</v>
+        <v>701.22284844356875</v>
       </c>
       <c r="N61" s="150">
         <f>IF(AND(B63&lt;B65,B66&lt;B68),B61,0)</f>
-        <v>45853.5</v>
+        <v>10705.3056</v>
       </c>
       <c r="O61" s="228">
         <f>O60</f>
-        <v>0.90007633986117097</v>
+        <v>0.59169867987494862</v>
       </c>
       <c r="P61" s="217" t="str">
         <f t="shared" si="22"/>
@@ -47996,7 +48031,7 @@
       </c>
       <c r="B62" s="94">
         <f>0.6*(B45-B48-B48)*B47*B49/10/10</f>
-        <v>332.64</v>
+        <v>98.841599999999985</v>
       </c>
       <c r="C62" s="95" t="s">
         <v>722</v>
@@ -48006,7 +48041,7 @@
       </c>
       <c r="E62" s="94">
         <f>0.6*(E45-E48-E48)*E47*E49/10/10</f>
-        <v>221.76</v>
+        <v>67.95359999999998</v>
       </c>
       <c r="F62" s="95" t="s">
         <v>722</v>
@@ -48039,7 +48074,7 @@
       </c>
       <c r="B63" s="168">
         <f>B46*0.5/B48</f>
-        <v>3.5</v>
+        <v>7.375</v>
       </c>
       <c r="C63" s="93"/>
       <c r="D63" s="204" t="s">
@@ -48047,7 +48082,7 @@
       </c>
       <c r="E63" s="168">
         <f>E46*0.5/E48</f>
-        <v>3.5</v>
+        <v>6.6315789473684212</v>
       </c>
       <c r="F63" s="93"/>
       <c r="G63" s="168" t="s">
@@ -48059,14 +48094,14 @@
       </c>
       <c r="I63" s="99"/>
       <c r="J63" s="62"/>
-      <c r="K63" s="299" t="s">
+      <c r="K63" s="308" t="s">
         <v>976</v>
       </c>
-      <c r="L63" s="299"/>
-      <c r="M63" s="299" t="s">
+      <c r="L63" s="308"/>
+      <c r="M63" s="308" t="s">
         <v>973</v>
       </c>
-      <c r="N63" s="299"/>
+      <c r="N63" s="308"/>
     </row>
     <row r="64" spans="1:23">
       <c r="A64" s="163" t="s">
@@ -48094,10 +48129,10 @@
       </c>
       <c r="I64" s="93"/>
       <c r="J64" s="62"/>
-      <c r="K64" s="299"/>
-      <c r="L64" s="299"/>
-      <c r="M64" s="299"/>
-      <c r="N64" s="299"/>
+      <c r="K64" s="308"/>
+      <c r="L64" s="308"/>
+      <c r="M64" s="308"/>
+      <c r="N64" s="308"/>
     </row>
     <row r="65" spans="1:21" ht="15.75" customHeight="1">
       <c r="A65" s="200" t="s">
@@ -48125,14 +48160,14 @@
       </c>
       <c r="I65" s="93"/>
       <c r="J65" s="62"/>
-      <c r="K65" s="299" t="s">
+      <c r="K65" s="308" t="s">
         <v>977</v>
       </c>
-      <c r="L65" s="299"/>
-      <c r="M65" s="299" t="s">
+      <c r="L65" s="308"/>
+      <c r="M65" s="308" t="s">
         <v>974</v>
       </c>
-      <c r="N65" s="299"/>
+      <c r="N65" s="308"/>
     </row>
     <row r="66" spans="1:21">
       <c r="A66" s="200" t="s">
@@ -48140,7 +48175,7 @@
       </c>
       <c r="B66" s="174">
         <f>(B45-B48-B48)/B47</f>
-        <v>21.428571428571427</v>
+        <v>19.5</v>
       </c>
       <c r="C66" s="93"/>
       <c r="D66" s="199" t="s">
@@ -48148,7 +48183,7 @@
       </c>
       <c r="E66" s="174">
         <f>(E45-E48-E48)/E47</f>
-        <v>14.285714285714286</v>
+        <v>28.363636363636363</v>
       </c>
       <c r="F66" s="93"/>
       <c r="G66" s="174" t="s">
@@ -48160,8 +48195,8 @@
       </c>
       <c r="I66" s="93"/>
       <c r="J66" s="62"/>
-      <c r="K66" s="299"/>
-      <c r="L66" s="299"/>
+      <c r="K66" s="308"/>
+      <c r="L66" s="308"/>
       <c r="M66" s="211"/>
       <c r="N66" s="211"/>
     </row>
@@ -48191,10 +48226,10 @@
       </c>
       <c r="I67" s="93"/>
       <c r="J67" s="62"/>
-      <c r="K67" s="299" t="s">
+      <c r="K67" s="308" t="s">
         <v>978</v>
       </c>
-      <c r="L67" s="299"/>
+      <c r="L67" s="308"/>
     </row>
     <row r="68" spans="1:21" ht="17.25" thickBot="1">
       <c r="A68" s="202" t="s">
@@ -48222,10 +48257,10 @@
       </c>
       <c r="I68" s="95"/>
       <c r="J68" s="62"/>
-      <c r="K68" s="320" t="s">
+      <c r="K68" s="315" t="s">
         <v>1020</v>
       </c>
-      <c r="L68" s="320"/>
+      <c r="L68" s="315"/>
     </row>
     <row r="69" spans="1:21">
       <c r="A69" s="176" t="s">
@@ -48278,21 +48313,21 @@
       <c r="J73" s="62"/>
     </row>
     <row r="74" spans="1:21">
-      <c r="A74" s="306" t="s">
+      <c r="A74" s="302" t="s">
         <v>834</v>
       </c>
-      <c r="B74" s="307"/>
-      <c r="C74" s="308"/>
-      <c r="D74" s="306" t="s">
+      <c r="B74" s="303"/>
+      <c r="C74" s="304"/>
+      <c r="D74" s="302" t="s">
         <v>930</v>
       </c>
-      <c r="E74" s="307"/>
-      <c r="F74" s="308"/>
-      <c r="G74" s="306" t="s">
+      <c r="E74" s="303"/>
+      <c r="F74" s="304"/>
+      <c r="G74" s="302" t="s">
         <v>839</v>
       </c>
-      <c r="H74" s="307"/>
-      <c r="I74" s="308"/>
+      <c r="H74" s="303"/>
+      <c r="I74" s="304"/>
       <c r="J74" s="62"/>
       <c r="N74" s="215" t="s">
         <v>1005</v>
@@ -48303,7 +48338,7 @@
         <v>698</v>
       </c>
       <c r="B75" s="157">
-        <v>700</v>
+        <v>378</v>
       </c>
       <c r="C75" s="158" t="s">
         <v>699</v>
@@ -48312,7 +48347,7 @@
         <v>698</v>
       </c>
       <c r="E75" s="157">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="F75" s="158" t="s">
         <v>699</v>
@@ -48339,7 +48374,7 @@
         <v>700</v>
       </c>
       <c r="B76" s="157">
-        <v>700</v>
+        <v>358</v>
       </c>
       <c r="C76" s="158" t="s">
         <v>699</v>
@@ -48348,7 +48383,7 @@
         <v>700</v>
       </c>
       <c r="E76" s="157">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="F76" s="158" t="s">
         <v>699</v>
@@ -48374,22 +48409,22 @@
       <c r="N76" s="229" t="s">
         <v>779</v>
       </c>
-      <c r="O76" s="312" t="s">
+      <c r="O76" s="316" t="s">
         <v>758</v>
       </c>
-      <c r="P76" s="313"/>
-      <c r="Q76" s="313"/>
-      <c r="R76" s="313"/>
-      <c r="S76" s="313"/>
-      <c r="T76" s="313"/>
-      <c r="U76" s="314"/>
+      <c r="P76" s="317"/>
+      <c r="Q76" s="317"/>
+      <c r="R76" s="317"/>
+      <c r="S76" s="317"/>
+      <c r="T76" s="317"/>
+      <c r="U76" s="318"/>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="156" t="s">
         <v>701</v>
       </c>
       <c r="B77" s="157">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C77" s="158" t="s">
         <v>699</v>
@@ -48398,7 +48433,7 @@
         <v>701</v>
       </c>
       <c r="E77" s="157">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F77" s="158" t="s">
         <v>699</v>
@@ -48457,7 +48492,7 @@
         <v>702</v>
       </c>
       <c r="B78" s="157">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C78" s="158" t="s">
         <v>699</v>
@@ -48466,7 +48501,7 @@
         <v>702</v>
       </c>
       <c r="E78" s="157">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F78" s="158" t="s">
         <v>699</v>
@@ -48556,11 +48591,11 @@
       </c>
       <c r="L79" s="150">
         <f t="shared" si="23"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="M79" s="150">
         <f t="shared" si="23"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="N79" s="226">
         <f>M78*SIN(G3)+N78</f>
@@ -48568,28 +48603,28 @@
       </c>
       <c r="O79" s="248">
         <f>E75</f>
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="P79" s="192" t="s">
         <v>759</v>
       </c>
       <c r="Q79" s="248">
         <f>E76</f>
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="R79" s="192" t="s">
         <v>759</v>
       </c>
       <c r="S79" s="248">
         <f>E77</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T79" s="193" t="s">
         <v>759</v>
       </c>
       <c r="U79" s="248">
         <f>E78</f>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:21" ht="16.5">
@@ -48608,40 +48643,40 @@
       </c>
       <c r="L80" s="150">
         <f t="shared" si="23"/>
-        <v>928.01279999999997</v>
+        <v>197.68319999999997</v>
       </c>
       <c r="M80" s="150">
         <f t="shared" si="23"/>
-        <v>1020.8140800000001</v>
+        <v>217.45151999999999</v>
       </c>
       <c r="N80" s="226">
         <f>M79*SIN(G4)+N79</f>
-        <v>721.82455829870685</v>
+        <v>153.76144437132214</v>
       </c>
       <c r="O80" s="248">
         <f>O79</f>
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="P80" s="193" t="s">
         <v>759</v>
       </c>
       <c r="Q80" s="248">
         <f>Q79</f>
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="R80" s="193" t="s">
         <v>759</v>
       </c>
       <c r="S80" s="248">
         <f>S79</f>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T80" s="193" t="s">
         <v>759</v>
       </c>
       <c r="U80" s="248">
         <f>U79</f>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81" spans="1:21" ht="16.5">
@@ -48666,40 +48701,40 @@
       </c>
       <c r="L81" s="150">
         <f t="shared" si="23"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="M81" s="150">
         <f t="shared" si="23"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="N81" s="226">
         <f>M80*SIN(G5)+N80</f>
-        <v>1443.6491165974137</v>
+        <v>307.52288874264428</v>
       </c>
       <c r="O81" s="248">
         <f>B75</f>
-        <v>700</v>
+        <v>378</v>
       </c>
       <c r="P81" s="193" t="s">
         <v>759</v>
       </c>
       <c r="Q81" s="248">
         <f>B76</f>
-        <v>700</v>
+        <v>358</v>
       </c>
       <c r="R81" s="193" t="s">
         <v>759</v>
       </c>
       <c r="S81" s="248">
         <f>B77</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="T81" s="193" t="s">
         <v>759</v>
       </c>
       <c r="U81" s="248">
         <f>B78</f>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:21" ht="21" customHeight="1">
@@ -48724,40 +48759,40 @@
       </c>
       <c r="L82" s="150">
         <f t="shared" si="23"/>
-        <v>1076.2751999999998</v>
+        <v>232.00319999999999</v>
       </c>
       <c r="M82" s="150">
         <f t="shared" si="23"/>
-        <v>1183.9027199999998</v>
+        <v>255.20352000000003</v>
       </c>
       <c r="N82" s="226">
         <f>M81*SIN(G6)+N81</f>
-        <v>2280.7947581746121</v>
+        <v>487.97902831732097</v>
       </c>
       <c r="O82" s="248">
         <f>O81</f>
-        <v>700</v>
+        <v>378</v>
       </c>
       <c r="P82" s="193" t="s">
         <v>759</v>
       </c>
       <c r="Q82" s="248">
         <f>Q81</f>
-        <v>700</v>
+        <v>358</v>
       </c>
       <c r="R82" s="193" t="s">
         <v>759</v>
       </c>
       <c r="S82" s="248">
         <f>S81</f>
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="T82" s="193" t="s">
         <v>759</v>
       </c>
       <c r="U82" s="248">
         <f>U81</f>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:21" ht="18">
@@ -48766,7 +48801,7 @@
       </c>
       <c r="B83" s="174">
         <f>B76*B78*2+(B75-B78-B78)*B77</f>
-        <v>89200</v>
+        <v>29868</v>
       </c>
       <c r="C83" s="93" t="s">
         <v>708</v>
@@ -48776,7 +48811,7 @@
       </c>
       <c r="E83" s="174">
         <f>E76*E78*2+(E75-E78-E78)*E77</f>
-        <v>36940</v>
+        <v>25552</v>
       </c>
       <c r="F83" s="93" t="s">
         <v>708</v>
@@ -48799,7 +48834,7 @@
       </c>
       <c r="B84" s="174">
         <f>(B77*(B75-B78-B78)^3)/12+2*(B76*B78*B78*B78/12+B76*B78*(B75*0.5-0.5*B78)^2)</f>
-        <v>7984333333.333333</v>
+        <v>755843796</v>
       </c>
       <c r="C84" s="93" t="s">
         <v>710</v>
@@ -48809,7 +48844,7 @@
       </c>
       <c r="E84" s="174">
         <f>(E77*(E75-E78-E78)^3)/12+2*(E76*E78*E78*E78/12+E76*E78*(E75*0.5-0.5*E78)^2)</f>
-        <v>1282793433.3333333</v>
+        <v>623009877.33333337</v>
       </c>
       <c r="F84" s="93" t="s">
         <v>710</v>
@@ -48832,7 +48867,7 @@
       </c>
       <c r="B85" s="174">
         <f>(B75-B78-B78)*B77*B77*B77/12+B78*B76*B76*B76*2/12</f>
-        <v>2859971733.3333335</v>
+        <v>252562916</v>
       </c>
       <c r="C85" s="93" t="s">
         <v>710</v>
@@ -48842,7 +48877,7 @@
       </c>
       <c r="E85" s="174">
         <f>(E75-E78-E78)*E77*E77*E77/12+E78*E76*E76*E76*2/12</f>
-        <v>384328313.33333331</v>
+        <v>210702373.33333334</v>
       </c>
       <c r="F85" s="93" t="s">
         <v>710</v>
@@ -48871,7 +48906,7 @@
       </c>
       <c r="B86" s="174">
         <f>(B75-B78-B78)*B77*B77*B77/3+B76*B78*B78*B78/3*2</f>
-        <v>64886933.333333336</v>
+        <v>9408964</v>
       </c>
       <c r="C86" s="93" t="s">
         <v>710</v>
@@ -48881,7 +48916,7 @@
       </c>
       <c r="E86" s="174">
         <f>(E75-E78-E78)*E77*E77*E77/3+E76*E78*E78*E78/3*2</f>
-        <v>13754853.333333334</v>
+        <v>5816469.333333333</v>
       </c>
       <c r="F86" s="93" t="s">
         <v>710</v>
@@ -48919,7 +48954,7 @@
       </c>
       <c r="B87" s="174">
         <f>B84/(B75/2)</f>
-        <v>22812380.952380951</v>
+        <v>3999173.5238095238</v>
       </c>
       <c r="C87" s="93" t="s">
         <v>714</v>
@@ -48929,7 +48964,7 @@
       </c>
       <c r="E87" s="174">
         <f>E84/(E75/2)</f>
-        <v>5804495.1734539969</v>
+        <v>3385923.246376812</v>
       </c>
       <c r="F87" s="93" t="s">
         <v>714</v>
@@ -48971,7 +49006,7 @@
       </c>
       <c r="B88" s="174">
         <f>B85/(B76/2)</f>
-        <v>8171347.8095238097</v>
+        <v>1410966.0111731843</v>
       </c>
       <c r="C88" s="93" t="s">
         <v>714</v>
@@ -48981,7 +49016,7 @@
       </c>
       <c r="E88" s="174">
         <f>E85/(E76/2)</f>
-        <v>1921641.5666666667</v>
+        <v>1183721.1985018728</v>
       </c>
       <c r="F88" s="93" t="s">
         <v>714</v>
@@ -49023,7 +49058,7 @@
       </c>
       <c r="B89" s="174">
         <f>B76*B75*B75*0.25-(B76-B77)*((B75-2*B78)^2)*0.25</f>
-        <v>25630000</v>
+        <v>4562550</v>
       </c>
       <c r="C89" s="93" t="s">
         <v>714</v>
@@ -49033,7 +49068,7 @@
       </c>
       <c r="E89" s="174">
         <f>E76*E75*E75*0.25-(E76-E77)*(E75-2*E78)^2*0.25</f>
-        <v>6599350</v>
+        <v>3827168</v>
       </c>
       <c r="F89" s="93" t="s">
         <v>714</v>
@@ -49054,11 +49089,11 @@
       </c>
       <c r="L89" s="249">
         <f>0.5*L93/SQRT((E85/10000)/(E83/100))*SQRT(E79/M6/PI()/PI())</f>
-        <v>0.25110412917105618</v>
+        <v>0.28205534520763664</v>
       </c>
       <c r="M89" s="177">
         <f>IF(L89&lt;=1.5,(0.658^(L89*L89))*E79*E83/100,0.877/L89/L89*E79*E83/100)</f>
-        <v>1187.2696788322507</v>
+        <v>815.60101965347383</v>
       </c>
       <c r="N89" s="222">
         <f t="shared" si="24"/>
@@ -49076,7 +49111,7 @@
       </c>
       <c r="B90" s="146">
         <f>B78*B76*B76*0.25*2+(B75-2*B78)*B77*B77*0.25</f>
-        <v>12403600</v>
+        <v>2145906</v>
       </c>
       <c r="C90" s="166" t="s">
         <v>714</v>
@@ -49086,7 +49121,7 @@
       </c>
       <c r="E90" s="146">
         <f>E78*E76*E76*0.25*2+(E75-2*E78)*E77*E77*0.25</f>
-        <v>2924770</v>
+        <v>1799576</v>
       </c>
       <c r="F90" s="166" t="s">
         <v>714</v>
@@ -49107,15 +49142,15 @@
       </c>
       <c r="L90" s="249">
         <f>0.5*L93/SQRT((E85/10000)/(E83/100))*SQRT(E79/M6/PI()/PI())</f>
-        <v>0.25110412917105618</v>
+        <v>0.28205534520763664</v>
       </c>
       <c r="M90" s="177">
         <f>IF(L90&lt;=1.5,(0.658^(L90*L90))*E79*E83/100,0.877/L90/L90*E79*E83/100)</f>
-        <v>1187.2696788322507</v>
+        <v>815.60101965347383</v>
       </c>
       <c r="N90" s="222">
         <f t="shared" si="24"/>
-        <v>0.71525903326328033</v>
+        <v>0.22179449577477897</v>
       </c>
       <c r="O90" s="224" t="str">
         <f t="shared" si="25"/>
@@ -49128,7 +49163,7 @@
       </c>
       <c r="B91" s="168">
         <f>B89*B79/1000</f>
-        <v>84579</v>
+        <v>15056.415000000001</v>
       </c>
       <c r="C91" s="99" t="s">
         <v>721</v>
@@ -49138,7 +49173,7 @@
       </c>
       <c r="E91" s="168">
         <f>E89*E79/1000</f>
-        <v>21777.855</v>
+        <v>12629.654399999998</v>
       </c>
       <c r="F91" s="99" t="s">
         <v>721</v>
@@ -49159,15 +49194,15 @@
       </c>
       <c r="L91" s="249">
         <f>0.5*L93/SQRT((B85/10000)/(B83/100))*SQRT(B79/M6/PI()/PI())</f>
-        <v>0.14304021543996279</v>
+        <v>0.27853185948806347</v>
       </c>
       <c r="M91" s="177">
         <f>IF(L91&lt;=1.5,(0.658^(L91*L91))*B79*B83/100,0.877/L91/L91*B79*B83/100)</f>
-        <v>2918.4993744696335</v>
+        <v>954.15306114341956</v>
       </c>
       <c r="N91" s="222">
         <f t="shared" si="24"/>
-        <v>0.58194657852800358</v>
+        <v>0.37917567793716322</v>
       </c>
       <c r="O91" s="224" t="str">
         <f t="shared" si="25"/>
@@ -49180,7 +49215,7 @@
       </c>
       <c r="B92" s="94">
         <f>0.6*(B75-B78-B78)*B77*B79/10/10</f>
-        <v>380.15999999999997</v>
+        <v>123.55199999999999</v>
       </c>
       <c r="C92" s="95" t="s">
         <v>722</v>
@@ -49190,7 +49225,7 @@
       </c>
       <c r="E92" s="94">
         <f>0.6*(E75-E78-E78)*E77*E79/10/10</f>
-        <v>161.17199999999997</v>
+        <v>111.19679999999998</v>
       </c>
       <c r="F92" s="95" t="s">
         <v>722</v>
@@ -49211,15 +49246,15 @@
       </c>
       <c r="L92" s="249">
         <f>0.5*L93/SQRT((B85/10000)/(B83/100))*SQRT(B79/M6/PI()/PI())</f>
-        <v>0.14304021543996279</v>
+        <v>0.27853185948806347</v>
       </c>
       <c r="M92" s="177">
         <f>IF(L92&lt;=1.5,(0.658^(L92*L92))*B79*B83/100,0.877/L92/L92*B79*B83/100)</f>
-        <v>2918.4993744696335</v>
+        <v>954.15306114341956</v>
       </c>
       <c r="N92" s="222">
         <f t="shared" si="24"/>
-        <v>0.91940672465666828</v>
+        <v>0.60167807228223469</v>
       </c>
       <c r="O92" s="224" t="str">
         <f t="shared" si="25"/>
@@ -49232,7 +49267,7 @@
       </c>
       <c r="B93" s="168">
         <f>B76*0.5/B78</f>
-        <v>7</v>
+        <v>5.4242424242424239</v>
       </c>
       <c r="C93" s="93"/>
       <c r="D93" s="204" t="s">
@@ -49240,7 +49275,7 @@
       </c>
       <c r="E93" s="168">
         <f>E76*0.5/E78</f>
-        <v>5.5555555555555554</v>
+        <v>6.3571428571428568</v>
       </c>
       <c r="F93" s="93"/>
       <c r="G93" s="168" t="s">
@@ -49326,7 +49361,7 @@
       </c>
       <c r="B96" s="174">
         <f>(B75-B78-B78)/B77</f>
-        <v>18.75</v>
+        <v>15.6</v>
       </c>
       <c r="C96" s="93"/>
       <c r="D96" s="199" t="s">
@@ -49334,7 +49369,7 @@
       </c>
       <c r="E96" s="174">
         <f>(E75-E78-E78)/E77</f>
-        <v>16.818181818181817</v>
+        <v>17.333333333333332</v>
       </c>
       <c r="F96" s="93"/>
       <c r="G96" s="174" t="s">
@@ -49436,11 +49471,11 @@
       <c r="J100" s="62"/>
     </row>
     <row r="101" spans="1:10">
-      <c r="E101" s="306" t="s">
+      <c r="E101" s="302" t="s">
         <v>826</v>
       </c>
-      <c r="F101" s="307"/>
-      <c r="G101" s="308"/>
+      <c r="F101" s="303"/>
+      <c r="G101" s="304"/>
       <c r="J101" s="62"/>
     </row>
     <row r="102" spans="1:10">
@@ -49700,13 +49735,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="G74:I74"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="M65:N65"/>
     <mergeCell ref="O76:U76"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="C11:E11"/>
@@ -49720,6 +49748,13 @@
     <mergeCell ref="K63:L64"/>
     <mergeCell ref="K65:L66"/>
     <mergeCell ref="K67:L67"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="M65:N65"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
